--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2025.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2025.xlsx
@@ -1069,55 +1069,55 @@
         <v>3543.68</v>
       </c>
       <c r="C11" t="n">
-        <v>18753.92</v>
+        <v>18753.91</v>
       </c>
       <c r="D11" t="n">
-        <v>2625.5488</v>
+        <v>2625.5474</v>
       </c>
       <c r="E11" t="n">
-        <v>2062.9312</v>
+        <v>2062.9301</v>
       </c>
       <c r="F11" t="n">
-        <v>2062.9312</v>
+        <v>2062.9301</v>
       </c>
       <c r="G11" t="n">
-        <v>1875.392</v>
+        <v>1875.391</v>
       </c>
       <c r="H11" t="n">
-        <v>1500.3136</v>
+        <v>1500.3128</v>
       </c>
       <c r="I11" t="n">
-        <v>1312.7744</v>
+        <v>1312.7737</v>
       </c>
       <c r="J11" t="n">
-        <v>937.6959999999999</v>
+        <v>937.6955</v>
       </c>
       <c r="K11" t="n">
-        <v>937.6959999999999</v>
+        <v>937.6955</v>
       </c>
       <c r="L11" t="n">
-        <v>750.1568</v>
+        <v>750.1564</v>
       </c>
       <c r="M11" t="n">
-        <v>2438.0096</v>
+        <v>2438.0083</v>
       </c>
       <c r="N11" t="n">
-        <v>750.1568</v>
+        <v>750.1564</v>
       </c>
       <c r="O11" t="n">
-        <v>562.6175999999999</v>
+        <v>562.6173</v>
       </c>
       <c r="P11" t="n">
-        <v>375.0784</v>
+        <v>375.0782</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.5392</v>
+        <v>187.5391</v>
       </c>
       <c r="R11" t="n">
-        <v>187.5392</v>
+        <v>187.5391</v>
       </c>
       <c r="S11" t="n">
-        <v>187.5392</v>
+        <v>187.5391</v>
       </c>
     </row>
     <row r="12">
@@ -1240,451 +1240,379 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>205</v>
-      </c>
-      <c r="B14" t="n">
-        <v>270.89</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1318.72</v>
-      </c>
-      <c r="D14" t="n">
-        <v>119.8836363636363</v>
-      </c>
-      <c r="E14" t="n">
-        <v>93.24282828282828</v>
-      </c>
-      <c r="F14" t="n">
-        <v>93.24282828282828</v>
-      </c>
-      <c r="G14" t="n">
-        <v>106.5632323232323</v>
-      </c>
-      <c r="H14" t="n">
-        <v>93.24282828282828</v>
-      </c>
-      <c r="I14" t="n">
-        <v>93.24282828282828</v>
-      </c>
-      <c r="J14" t="n">
-        <v>106.5632323232323</v>
-      </c>
-      <c r="K14" t="n">
-        <v>66.6020202020202</v>
-      </c>
-      <c r="L14" t="n">
-        <v>66.6020202020202</v>
-      </c>
-      <c r="M14" t="n">
-        <v>106.5632323232323</v>
-      </c>
-      <c r="N14" t="n">
-        <v>66.6020202020202</v>
-      </c>
-      <c r="O14" t="n">
-        <v>53.28161616161615</v>
-      </c>
-      <c r="P14" t="n">
-        <v>79.92242424242423</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>66.6020202020202</v>
-      </c>
-      <c r="R14" t="n">
-        <v>39.96121212121211</v>
-      </c>
-      <c r="S14" t="n">
-        <v>66.6020202020202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>90.06</v>
+        <v>270.89</v>
       </c>
       <c r="C15" t="n">
-        <v>438.3299999999999</v>
+        <v>1318.72</v>
       </c>
       <c r="D15" t="n">
-        <v>39.84818181818181</v>
+        <v>119.8836363636363</v>
       </c>
       <c r="E15" t="n">
-        <v>30.9930303030303</v>
+        <v>93.24282828282828</v>
       </c>
       <c r="F15" t="n">
-        <v>30.9930303030303</v>
+        <v>93.24282828282828</v>
       </c>
       <c r="G15" t="n">
-        <v>35.42060606060605</v>
+        <v>106.5632323232323</v>
       </c>
       <c r="H15" t="n">
-        <v>30.9930303030303</v>
+        <v>93.24282828282828</v>
       </c>
       <c r="I15" t="n">
-        <v>30.9930303030303</v>
+        <v>93.24282828282828</v>
       </c>
       <c r="J15" t="n">
-        <v>35.42060606060605</v>
+        <v>106.5632323232323</v>
       </c>
       <c r="K15" t="n">
-        <v>22.13787878787878</v>
+        <v>66.6020202020202</v>
       </c>
       <c r="L15" t="n">
-        <v>22.13787878787878</v>
+        <v>66.6020202020202</v>
       </c>
       <c r="M15" t="n">
-        <v>35.42060606060605</v>
+        <v>106.5632323232323</v>
       </c>
       <c r="N15" t="n">
-        <v>22.13787878787878</v>
+        <v>66.6020202020202</v>
       </c>
       <c r="O15" t="n">
-        <v>17.71030303030302</v>
+        <v>53.28161616161615</v>
       </c>
       <c r="P15" t="n">
-        <v>26.56545454545454</v>
+        <v>79.92242424242423</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.13787878787878</v>
+        <v>66.6020202020202</v>
       </c>
       <c r="R15" t="n">
-        <v>13.28272727272727</v>
+        <v>39.96121212121211</v>
       </c>
       <c r="S15" t="n">
-        <v>22.13787878787878</v>
+        <v>66.6020202020202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3607</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>90.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>438.3299999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>39.84818181818181</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>30.9930303030303</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>30.9930303030303</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.42060606060605</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>30.9930303030303</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>30.9930303030303</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>35.42060606060605</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.13787878787878</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>22.13787878787878</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>35.42060606060605</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>22.13787878787878</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>17.71030303030302</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>26.56545454545454</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.13787878787878</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.28272727272727</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.13787878787878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+        <v>3607</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B18" t="n">
-        <v>443.4</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1995.28</v>
-      </c>
-      <c r="D18" t="n">
-        <v>219.4807999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>179.5752</v>
-      </c>
-      <c r="F18" t="n">
-        <v>179.5752</v>
-      </c>
-      <c r="G18" t="n">
-        <v>159.6224</v>
-      </c>
-      <c r="H18" t="n">
-        <v>159.6224</v>
-      </c>
-      <c r="I18" t="n">
-        <v>159.6224</v>
-      </c>
-      <c r="J18" t="n">
-        <v>139.6696</v>
-      </c>
-      <c r="K18" t="n">
-        <v>99.76399999999998</v>
-      </c>
-      <c r="L18" t="n">
-        <v>99.76399999999998</v>
-      </c>
-      <c r="M18" t="n">
-        <v>199.528</v>
-      </c>
-      <c r="N18" t="n">
-        <v>79.81119999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>79.81119999999999</v>
-      </c>
-      <c r="P18" t="n">
-        <v>79.81119999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>59.85839999999998</v>
-      </c>
-      <c r="R18" t="n">
-        <v>39.90559999999999</v>
-      </c>
-      <c r="S18" t="n">
-        <v>59.85839999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6503</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="n">
-        <v>918.25</v>
+        <v>443.4</v>
       </c>
       <c r="C19" t="n">
-        <v>4132.12</v>
+        <v>1995.28</v>
       </c>
       <c r="D19" t="n">
-        <v>495.8543999999999</v>
+        <v>219.4807999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>371.8908</v>
+        <v>179.5752</v>
       </c>
       <c r="F19" t="n">
-        <v>371.8908</v>
+        <v>179.5752</v>
       </c>
       <c r="G19" t="n">
-        <v>371.8908</v>
+        <v>159.6224</v>
       </c>
       <c r="H19" t="n">
-        <v>371.8908</v>
+        <v>159.6224</v>
       </c>
       <c r="I19" t="n">
-        <v>330.5696</v>
+        <v>159.6224</v>
       </c>
       <c r="J19" t="n">
-        <v>247.9272</v>
+        <v>139.6696</v>
       </c>
       <c r="K19" t="n">
-        <v>206.606</v>
+        <v>99.76399999999998</v>
       </c>
       <c r="L19" t="n">
-        <v>206.606</v>
+        <v>99.76399999999998</v>
       </c>
       <c r="M19" t="n">
-        <v>454.5332</v>
+        <v>199.528</v>
       </c>
       <c r="N19" t="n">
-        <v>165.2848</v>
+        <v>79.81119999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>165.2848</v>
+        <v>79.81119999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>123.9636</v>
+        <v>79.81119999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.64239999999999</v>
+        <v>59.85839999999998</v>
       </c>
       <c r="R19" t="n">
-        <v>82.64239999999999</v>
+        <v>39.90559999999999</v>
       </c>
       <c r="S19" t="n">
-        <v>82.64239999999999</v>
+        <v>59.85839999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B20" t="n">
-        <v>1380.73</v>
+        <v>918.25</v>
       </c>
       <c r="C20" t="n">
-        <v>6213.29</v>
+        <v>4132.12</v>
       </c>
       <c r="D20" t="n">
-        <v>745.5948</v>
+        <v>495.8543999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>559.1961</v>
+        <v>371.8908</v>
       </c>
       <c r="F20" t="n">
-        <v>559.1961</v>
+        <v>371.8908</v>
       </c>
       <c r="G20" t="n">
-        <v>559.1961</v>
+        <v>371.8908</v>
       </c>
       <c r="H20" t="n">
-        <v>559.1961</v>
+        <v>371.8908</v>
       </c>
       <c r="I20" t="n">
-        <v>497.0632</v>
+        <v>330.5696</v>
       </c>
       <c r="J20" t="n">
-        <v>372.7974</v>
+        <v>247.9272</v>
       </c>
       <c r="K20" t="n">
-        <v>310.6645</v>
+        <v>206.606</v>
       </c>
       <c r="L20" t="n">
-        <v>310.6645</v>
+        <v>206.606</v>
       </c>
       <c r="M20" t="n">
-        <v>683.4619</v>
+        <v>454.5332</v>
       </c>
       <c r="N20" t="n">
-        <v>248.5316</v>
+        <v>165.2848</v>
       </c>
       <c r="O20" t="n">
-        <v>248.5316</v>
+        <v>165.2848</v>
       </c>
       <c r="P20" t="n">
-        <v>186.3987</v>
+        <v>123.9636</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.2658</v>
+        <v>82.64239999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>124.2658</v>
+        <v>82.64239999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>124.2658</v>
+        <v>82.64239999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6701</v>
+        <v>6505</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1380.73</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+        <v>6213.29</v>
+      </c>
+      <c r="D21" t="n">
+        <v>745.5948</v>
+      </c>
+      <c r="E21" t="n">
+        <v>559.1961</v>
+      </c>
+      <c r="F21" t="n">
+        <v>559.1961</v>
+      </c>
+      <c r="G21" t="n">
+        <v>559.1961</v>
+      </c>
+      <c r="H21" t="n">
+        <v>559.1961</v>
+      </c>
+      <c r="I21" t="n">
+        <v>497.0632</v>
+      </c>
+      <c r="J21" t="n">
+        <v>372.7974</v>
+      </c>
+      <c r="K21" t="n">
+        <v>310.6645</v>
+      </c>
+      <c r="L21" t="n">
+        <v>310.6645</v>
+      </c>
+      <c r="M21" t="n">
+        <v>683.4619</v>
+      </c>
+      <c r="N21" t="n">
+        <v>248.5316</v>
+      </c>
+      <c r="O21" t="n">
+        <v>248.5316</v>
+      </c>
+      <c r="P21" t="n">
+        <v>186.3987</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>124.2658</v>
+      </c>
+      <c r="R21" t="n">
+        <v>124.2658</v>
+      </c>
+      <c r="S21" t="n">
+        <v>124.2658</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+        <v>6701</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
@@ -1707,11 +1635,9 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -1734,2543 +1660,2401 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.77</v>
-      </c>
+        <v>6702</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>996.4999999999998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>119.58</v>
-      </c>
-      <c r="E24" t="n">
-        <v>99.64999999999998</v>
-      </c>
-      <c r="F24" t="n">
-        <v>89.68499999999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>89.68499999999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>79.71999999999998</v>
-      </c>
-      <c r="I24" t="n">
-        <v>79.71999999999998</v>
-      </c>
-      <c r="J24" t="n">
-        <v>59.78999999999998</v>
-      </c>
-      <c r="K24" t="n">
-        <v>49.82499999999999</v>
-      </c>
-      <c r="L24" t="n">
-        <v>49.82499999999999</v>
-      </c>
-      <c r="M24" t="n">
-        <v>109.615</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39.85999999999999</v>
-      </c>
-      <c r="O24" t="n">
-        <v>39.85999999999999</v>
-      </c>
-      <c r="P24" t="n">
-        <v>29.89499999999999</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="R24" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="S24" t="n">
-        <v>19.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6602</v>
+        <v>6610</v>
       </c>
       <c r="B25" t="n">
-        <v>699.26</v>
+        <v>241.77</v>
       </c>
       <c r="C25" t="n">
-        <v>2908.379999999999</v>
+        <v>996.4999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>349.0055999999999</v>
+        <v>119.58</v>
       </c>
       <c r="E25" t="n">
-        <v>290.838</v>
+        <v>99.64999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>261.7542</v>
+        <v>89.68499999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>261.7542</v>
+        <v>89.68499999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>232.6704</v>
+        <v>79.71999999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>232.6704</v>
+        <v>79.71999999999998</v>
       </c>
       <c r="J25" t="n">
-        <v>174.5028</v>
+        <v>59.78999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>145.419</v>
+        <v>49.82499999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>145.419</v>
+        <v>49.82499999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>319.9217999999999</v>
+        <v>109.615</v>
       </c>
       <c r="N25" t="n">
-        <v>116.3352</v>
+        <v>39.85999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>116.3352</v>
+        <v>39.85999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>87.25139999999998</v>
+        <v>29.89499999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.16759999999999</v>
+        <v>19.93</v>
       </c>
       <c r="R25" t="n">
-        <v>58.16759999999999</v>
+        <v>19.93</v>
       </c>
       <c r="S25" t="n">
-        <v>58.16759999999999</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B26" t="n">
-        <v>823.64</v>
+        <v>699.26</v>
       </c>
       <c r="C26" t="n">
-        <v>3425.67</v>
+        <v>2908.379999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>411.0803999999999</v>
+        <v>349.0055999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>342.567</v>
+        <v>290.838</v>
       </c>
       <c r="F26" t="n">
-        <v>308.3102999999999</v>
+        <v>261.7542</v>
       </c>
       <c r="G26" t="n">
-        <v>308.3102999999999</v>
+        <v>261.7542</v>
       </c>
       <c r="H26" t="n">
-        <v>274.0536</v>
+        <v>232.6704</v>
       </c>
       <c r="I26" t="n">
-        <v>274.0536</v>
+        <v>232.6704</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5401999999999</v>
+        <v>174.5028</v>
       </c>
       <c r="K26" t="n">
-        <v>171.2835</v>
+        <v>145.419</v>
       </c>
       <c r="L26" t="n">
-        <v>171.2835</v>
+        <v>145.419</v>
       </c>
       <c r="M26" t="n">
-        <v>376.8236999999999</v>
+        <v>319.9217999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>137.0268</v>
+        <v>116.3352</v>
       </c>
       <c r="O26" t="n">
-        <v>137.0268</v>
+        <v>116.3352</v>
       </c>
       <c r="P26" t="n">
-        <v>102.7701</v>
+        <v>87.25139999999998</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.51339999999999</v>
+        <v>58.16759999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>68.51339999999999</v>
+        <v>58.16759999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>68.51339999999999</v>
+        <v>58.16759999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B27" t="n">
-        <v>351.49</v>
+        <v>823.64</v>
       </c>
       <c r="C27" t="n">
-        <v>1461.9</v>
+        <v>3425.67</v>
       </c>
       <c r="D27" t="n">
-        <v>175.428</v>
+        <v>411.0803999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>146.19</v>
+        <v>342.567</v>
       </c>
       <c r="F27" t="n">
-        <v>131.571</v>
+        <v>308.3102999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>131.571</v>
+        <v>308.3102999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>116.952</v>
+        <v>274.0536</v>
       </c>
       <c r="I27" t="n">
-        <v>116.952</v>
+        <v>274.0536</v>
       </c>
       <c r="J27" t="n">
-        <v>87.71399999999998</v>
+        <v>205.5401999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>73.09499999999998</v>
+        <v>171.2835</v>
       </c>
       <c r="L27" t="n">
-        <v>73.09499999999998</v>
+        <v>171.2835</v>
       </c>
       <c r="M27" t="n">
-        <v>160.809</v>
+        <v>376.8236999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>58.47599999999999</v>
+        <v>137.0268</v>
       </c>
       <c r="O27" t="n">
-        <v>58.47599999999999</v>
+        <v>137.0268</v>
       </c>
       <c r="P27" t="n">
-        <v>43.85699999999999</v>
+        <v>102.7701</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.238</v>
+        <v>68.51339999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>29.238</v>
+        <v>68.51339999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>29.238</v>
+        <v>68.51339999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B28" t="n">
-        <v>224.71</v>
+        <v>351.49</v>
       </c>
       <c r="C28" t="n">
-        <v>934.7499999999998</v>
+        <v>1461.9</v>
       </c>
       <c r="D28" t="n">
-        <v>112.17</v>
+        <v>175.428</v>
       </c>
       <c r="E28" t="n">
-        <v>93.47499999999998</v>
+        <v>146.19</v>
       </c>
       <c r="F28" t="n">
-        <v>84.12749999999998</v>
+        <v>131.571</v>
       </c>
       <c r="G28" t="n">
-        <v>84.12749999999998</v>
+        <v>131.571</v>
       </c>
       <c r="H28" t="n">
-        <v>74.77999999999999</v>
+        <v>116.952</v>
       </c>
       <c r="I28" t="n">
-        <v>74.77999999999999</v>
+        <v>116.952</v>
       </c>
       <c r="J28" t="n">
-        <v>56.08499999999999</v>
+        <v>87.71399999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>46.73749999999999</v>
+        <v>73.09499999999998</v>
       </c>
       <c r="L28" t="n">
-        <v>46.73749999999999</v>
+        <v>73.09499999999998</v>
       </c>
       <c r="M28" t="n">
-        <v>102.8225</v>
+        <v>160.809</v>
       </c>
       <c r="N28" t="n">
-        <v>37.38999999999999</v>
+        <v>58.47599999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>37.38999999999999</v>
+        <v>58.47599999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>28.04249999999999</v>
+        <v>43.85699999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.695</v>
+        <v>29.238</v>
       </c>
       <c r="R28" t="n">
-        <v>18.695</v>
+        <v>29.238</v>
       </c>
       <c r="S28" t="n">
-        <v>18.695</v>
+        <v>29.238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B29" t="n">
-        <v>1303.77</v>
+        <v>224.71</v>
       </c>
       <c r="C29" t="n">
-        <v>5422.849999999999</v>
+        <v>934.7499999999998</v>
       </c>
       <c r="D29" t="n">
-        <v>650.7419999999998</v>
+        <v>112.17</v>
       </c>
       <c r="E29" t="n">
-        <v>542.285</v>
+        <v>93.47499999999998</v>
       </c>
       <c r="F29" t="n">
-        <v>488.0564999999999</v>
+        <v>84.12749999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>488.0564999999999</v>
+        <v>84.12749999999998</v>
       </c>
       <c r="H29" t="n">
-        <v>433.828</v>
+        <v>74.77999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>433.828</v>
+        <v>74.77999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>325.3709999999999</v>
+        <v>56.08499999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>271.1425</v>
+        <v>46.73749999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>271.1425</v>
+        <v>46.73749999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>596.5134999999999</v>
+        <v>102.8225</v>
       </c>
       <c r="N29" t="n">
-        <v>216.914</v>
+        <v>37.38999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>216.914</v>
+        <v>37.38999999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>162.6855</v>
+        <v>28.04249999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>108.457</v>
+        <v>18.695</v>
       </c>
       <c r="R29" t="n">
-        <v>108.457</v>
+        <v>18.695</v>
       </c>
       <c r="S29" t="n">
-        <v>108.457</v>
+        <v>18.695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6507</v>
+        <v>6606</v>
       </c>
       <c r="B30" t="n">
-        <v>937.85</v>
+        <v>1303.77</v>
       </c>
       <c r="C30" t="n">
-        <v>3901.029999999999</v>
+        <v>5422.849999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>468.1235999999999</v>
+        <v>650.7419999999998</v>
       </c>
       <c r="E30" t="n">
-        <v>390.103</v>
+        <v>542.285</v>
       </c>
       <c r="F30" t="n">
-        <v>351.0926999999999</v>
+        <v>488.0564999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>351.0926999999999</v>
+        <v>488.0564999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>312.0824</v>
+        <v>433.828</v>
       </c>
       <c r="I30" t="n">
-        <v>312.0824</v>
+        <v>433.828</v>
       </c>
       <c r="J30" t="n">
-        <v>234.0617999999999</v>
+        <v>325.3709999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>195.0515</v>
+        <v>271.1425</v>
       </c>
       <c r="L30" t="n">
-        <v>195.0515</v>
+        <v>271.1425</v>
       </c>
       <c r="M30" t="n">
-        <v>429.1132999999999</v>
+        <v>596.5134999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>156.0412</v>
+        <v>216.914</v>
       </c>
       <c r="O30" t="n">
-        <v>156.0412</v>
+        <v>216.914</v>
       </c>
       <c r="P30" t="n">
-        <v>117.0309</v>
+        <v>162.6855</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.02059999999999</v>
+        <v>108.457</v>
       </c>
       <c r="R30" t="n">
-        <v>78.02059999999999</v>
+        <v>108.457</v>
       </c>
       <c r="S30" t="n">
-        <v>78.02059999999999</v>
+        <v>108.457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B31" t="n">
-        <v>1334.73</v>
+        <v>937.85</v>
       </c>
       <c r="C31" t="n">
-        <v>5551.669999999999</v>
+        <v>3901.029999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>666.2003999999998</v>
+        <v>468.1235999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>555.1669999999999</v>
+        <v>390.103</v>
       </c>
       <c r="F31" t="n">
-        <v>499.6502999999999</v>
+        <v>351.0926999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>499.6502999999999</v>
+        <v>351.0926999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>444.1335999999999</v>
+        <v>312.0824</v>
       </c>
       <c r="I31" t="n">
-        <v>444.1335999999999</v>
+        <v>312.0824</v>
       </c>
       <c r="J31" t="n">
-        <v>333.1001999999999</v>
+        <v>234.0617999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5835</v>
+        <v>195.0515</v>
       </c>
       <c r="L31" t="n">
-        <v>277.5835</v>
+        <v>195.0515</v>
       </c>
       <c r="M31" t="n">
-        <v>610.6836999999998</v>
+        <v>429.1132999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>222.0668</v>
+        <v>156.0412</v>
       </c>
       <c r="O31" t="n">
-        <v>222.0668</v>
+        <v>156.0412</v>
       </c>
       <c r="P31" t="n">
-        <v>166.5501</v>
+        <v>117.0309</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.0334</v>
+        <v>78.02059999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>111.0334</v>
+        <v>78.02059999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>111.0334</v>
+        <v>78.02059999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6510</v>
+        <v>6508</v>
       </c>
       <c r="B32" t="n">
-        <v>399.56</v>
+        <v>1334.73</v>
       </c>
       <c r="C32" t="n">
-        <v>1662.01</v>
+        <v>5551.669999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>199.4412</v>
+        <v>666.2003999999998</v>
       </c>
       <c r="E32" t="n">
-        <v>166.201</v>
+        <v>555.1669999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>149.5809</v>
+        <v>499.6502999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>149.5809</v>
+        <v>499.6502999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>132.9608</v>
+        <v>444.1335999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>132.9608</v>
+        <v>444.1335999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>99.72059999999998</v>
+        <v>333.1001999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>83.10049999999998</v>
+        <v>277.5835</v>
       </c>
       <c r="L32" t="n">
-        <v>83.10049999999998</v>
+        <v>277.5835</v>
       </c>
       <c r="M32" t="n">
-        <v>182.8210999999999</v>
+        <v>610.6836999999998</v>
       </c>
       <c r="N32" t="n">
-        <v>66.48039999999999</v>
+        <v>222.0668</v>
       </c>
       <c r="O32" t="n">
-        <v>66.48039999999999</v>
+        <v>222.0668</v>
       </c>
       <c r="P32" t="n">
-        <v>49.86029999999999</v>
+        <v>166.5501</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.24019999999999</v>
+        <v>111.0334</v>
       </c>
       <c r="R32" t="n">
-        <v>33.24019999999999</v>
+        <v>111.0334</v>
       </c>
       <c r="S32" t="n">
-        <v>33.24019999999999</v>
+        <v>111.0334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="n">
-        <v>1014.18</v>
+        <v>399.56</v>
       </c>
       <c r="C33" t="n">
-        <v>4218.309999999999</v>
+        <v>1662.01</v>
       </c>
       <c r="D33" t="n">
-        <v>506.1971999999999</v>
+        <v>199.4412</v>
       </c>
       <c r="E33" t="n">
-        <v>421.831</v>
+        <v>166.201</v>
       </c>
       <c r="F33" t="n">
-        <v>379.6478999999999</v>
+        <v>149.5809</v>
       </c>
       <c r="G33" t="n">
-        <v>379.6478999999999</v>
+        <v>149.5809</v>
       </c>
       <c r="H33" t="n">
-        <v>337.4648</v>
+        <v>132.9608</v>
       </c>
       <c r="I33" t="n">
-        <v>337.4648</v>
+        <v>132.9608</v>
       </c>
       <c r="J33" t="n">
-        <v>253.0985999999999</v>
+        <v>99.72059999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>210.9155</v>
+        <v>83.10049999999998</v>
       </c>
       <c r="L33" t="n">
-        <v>210.9155</v>
+        <v>83.10049999999998</v>
       </c>
       <c r="M33" t="n">
-        <v>464.0140999999999</v>
+        <v>182.8210999999999</v>
       </c>
       <c r="N33" t="n">
-        <v>168.7324</v>
+        <v>66.48039999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>168.7324</v>
+        <v>66.48039999999999</v>
       </c>
       <c r="P33" t="n">
-        <v>126.5493</v>
+        <v>49.86029999999999</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.36619999999999</v>
+        <v>33.24019999999999</v>
       </c>
       <c r="R33" t="n">
-        <v>84.36619999999999</v>
+        <v>33.24019999999999</v>
       </c>
       <c r="S33" t="n">
-        <v>84.36619999999999</v>
+        <v>33.24019999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6403</v>
+        <v>6509</v>
       </c>
       <c r="B34" t="n">
-        <v>1483.46</v>
+        <v>1014.18</v>
       </c>
       <c r="C34" t="n">
-        <v>6675.56</v>
+        <v>4218.309999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>801.0672000000001</v>
+        <v>506.1971999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>600.8004</v>
+        <v>421.831</v>
       </c>
       <c r="F34" t="n">
-        <v>600.8004</v>
+        <v>379.6478999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>600.8004</v>
+        <v>379.6478999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>600.8004</v>
+        <v>337.4648</v>
       </c>
       <c r="I34" t="n">
-        <v>534.0448</v>
+        <v>337.4648</v>
       </c>
       <c r="J34" t="n">
-        <v>400.5336</v>
+        <v>253.0985999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>333.778</v>
+        <v>210.9155</v>
       </c>
       <c r="L34" t="n">
-        <v>333.778</v>
+        <v>210.9155</v>
       </c>
       <c r="M34" t="n">
-        <v>734.3116</v>
+        <v>464.0140999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>267.0224</v>
+        <v>168.7324</v>
       </c>
       <c r="O34" t="n">
-        <v>267.0224</v>
+        <v>168.7324</v>
       </c>
       <c r="P34" t="n">
-        <v>200.2668</v>
+        <v>126.5493</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.5112</v>
+        <v>84.36619999999999</v>
       </c>
       <c r="R34" t="n">
-        <v>133.5112</v>
+        <v>84.36619999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>133.5112</v>
+        <v>84.36619999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6511</v>
+        <v>6403</v>
       </c>
       <c r="B35" t="n">
-        <v>414.86</v>
+        <v>1483.46</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.89</v>
+        <v>6675.56</v>
       </c>
       <c r="D35" t="n">
-        <v>224.0268</v>
+        <v>801.0672000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>168.0201</v>
+        <v>600.8004</v>
       </c>
       <c r="F35" t="n">
-        <v>168.0201</v>
+        <v>600.8004</v>
       </c>
       <c r="G35" t="n">
-        <v>168.0201</v>
+        <v>600.8004</v>
       </c>
       <c r="H35" t="n">
-        <v>168.0201</v>
+        <v>600.8004</v>
       </c>
       <c r="I35" t="n">
-        <v>149.3512</v>
+        <v>534.0448</v>
       </c>
       <c r="J35" t="n">
-        <v>112.0134</v>
+        <v>400.5336</v>
       </c>
       <c r="K35" t="n">
-        <v>93.34450000000001</v>
+        <v>333.778</v>
       </c>
       <c r="L35" t="n">
-        <v>93.34450000000001</v>
+        <v>333.778</v>
       </c>
       <c r="M35" t="n">
-        <v>205.3579</v>
+        <v>734.3116</v>
       </c>
       <c r="N35" t="n">
-        <v>74.6756</v>
+        <v>267.0224</v>
       </c>
       <c r="O35" t="n">
-        <v>74.6756</v>
+        <v>267.0224</v>
       </c>
       <c r="P35" t="n">
-        <v>56.0067</v>
+        <v>200.2668</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.3378</v>
+        <v>133.5112</v>
       </c>
       <c r="R35" t="n">
-        <v>37.3378</v>
+        <v>133.5112</v>
       </c>
       <c r="S35" t="n">
-        <v>37.3378</v>
+        <v>133.5112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1207</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>414.86</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+        <v>1866.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>224.0268</v>
+      </c>
+      <c r="E36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="F36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="G36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="H36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="I36" t="n">
+        <v>149.3512</v>
+      </c>
+      <c r="J36" t="n">
+        <v>112.0134</v>
+      </c>
+      <c r="K36" t="n">
+        <v>93.34450000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>93.34450000000001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>205.3579</v>
+      </c>
+      <c r="N36" t="n">
+        <v>74.6756</v>
+      </c>
+      <c r="O36" t="n">
+        <v>74.6756</v>
+      </c>
+      <c r="P36" t="n">
+        <v>56.0067</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>37.3378</v>
+      </c>
+      <c r="R36" t="n">
+        <v>37.3378</v>
+      </c>
+      <c r="S36" t="n">
+        <v>37.3378</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.05</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.02639999999999999</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.02159999999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.02159999999999999</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.01919999999999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.01919999999999999</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.01919999999999999</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.02399999999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.009599999999999997</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.009599999999999997</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.009599999999999997</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.007199999999999998</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.004799999999999999</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.007199999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B38" t="n">
-        <v>827.3099999999999</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>3722.9</v>
-      </c>
-      <c r="D38" t="n">
-        <v>409.5189999999999</v>
-      </c>
-      <c r="E38" t="n">
-        <v>335.0609999999999</v>
-      </c>
-      <c r="F38" t="n">
-        <v>335.0609999999999</v>
-      </c>
-      <c r="G38" t="n">
-        <v>297.8319999999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>297.8319999999999</v>
-      </c>
-      <c r="I38" t="n">
-        <v>297.8319999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>260.603</v>
-      </c>
-      <c r="K38" t="n">
-        <v>186.145</v>
-      </c>
-      <c r="L38" t="n">
-        <v>186.145</v>
-      </c>
-      <c r="M38" t="n">
-        <v>372.2899999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>148.916</v>
-      </c>
-      <c r="O38" t="n">
-        <v>148.916</v>
-      </c>
-      <c r="P38" t="n">
-        <v>148.916</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>111.687</v>
-      </c>
-      <c r="R38" t="n">
-        <v>74.45799999999998</v>
-      </c>
-      <c r="S38" t="n">
-        <v>111.687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="n">
-        <v>622.1900000000001</v>
+        <v>827.3099999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>2799.849999999999</v>
+        <v>3722.9</v>
       </c>
       <c r="D39" t="n">
-        <v>307.9834999999999</v>
+        <v>409.5189999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>251.9864999999999</v>
+        <v>335.0609999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>251.9864999999999</v>
+        <v>335.0609999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>223.988</v>
+        <v>297.8319999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>223.988</v>
+        <v>297.8319999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>223.988</v>
+        <v>297.8319999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>195.9895</v>
+        <v>260.603</v>
       </c>
       <c r="K39" t="n">
-        <v>139.9925</v>
+        <v>186.145</v>
       </c>
       <c r="L39" t="n">
-        <v>139.9925</v>
+        <v>186.145</v>
       </c>
       <c r="M39" t="n">
-        <v>279.985</v>
+        <v>372.2899999999999</v>
       </c>
       <c r="N39" t="n">
-        <v>111.994</v>
+        <v>148.916</v>
       </c>
       <c r="O39" t="n">
-        <v>111.994</v>
+        <v>148.916</v>
       </c>
       <c r="P39" t="n">
-        <v>111.994</v>
+        <v>148.916</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.99549999999998</v>
+        <v>111.687</v>
       </c>
       <c r="R39" t="n">
-        <v>55.99699999999999</v>
+        <v>74.45799999999998</v>
       </c>
       <c r="S39" t="n">
-        <v>83.99549999999998</v>
+        <v>111.687</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>208</v>
+        <v>1302</v>
       </c>
       <c r="B40" t="n">
-        <v>64.8</v>
+        <v>622.1900000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>315.4399999999999</v>
+        <v>2799.849999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>28.67636363636363</v>
+        <v>307.9834999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>22.30383838383838</v>
+        <v>251.9864999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>22.30383838383838</v>
+        <v>251.9864999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>25.490101010101</v>
+        <v>223.988</v>
       </c>
       <c r="H40" t="n">
-        <v>22.30383838383838</v>
+        <v>223.988</v>
       </c>
       <c r="I40" t="n">
-        <v>22.30383838383838</v>
+        <v>223.988</v>
       </c>
       <c r="J40" t="n">
-        <v>25.490101010101</v>
+        <v>195.9895</v>
       </c>
       <c r="K40" t="n">
-        <v>15.93131313131313</v>
+        <v>139.9925</v>
       </c>
       <c r="L40" t="n">
-        <v>15.93131313131313</v>
+        <v>139.9925</v>
       </c>
       <c r="M40" t="n">
-        <v>25.490101010101</v>
+        <v>279.985</v>
       </c>
       <c r="N40" t="n">
-        <v>15.93131313131313</v>
+        <v>111.994</v>
       </c>
       <c r="O40" t="n">
-        <v>12.7450505050505</v>
+        <v>111.994</v>
       </c>
       <c r="P40" t="n">
-        <v>19.11757575757575</v>
+        <v>111.994</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.93131313131313</v>
+        <v>83.99549999999998</v>
       </c>
       <c r="R40" t="n">
-        <v>9.558787878787877</v>
+        <v>55.99699999999999</v>
       </c>
       <c r="S40" t="n">
-        <v>15.93131313131313</v>
+        <v>83.99549999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="n">
-        <v>84.76000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="C41" t="n">
-        <v>412.54</v>
+        <v>315.4399999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>37.50363636363635</v>
+        <v>28.67636363636363</v>
       </c>
       <c r="E41" t="n">
-        <v>29.16949494949495</v>
+        <v>22.30383838383838</v>
       </c>
       <c r="F41" t="n">
-        <v>29.16949494949495</v>
+        <v>22.30383838383838</v>
       </c>
       <c r="G41" t="n">
-        <v>33.33656565656565</v>
+        <v>25.490101010101</v>
       </c>
       <c r="H41" t="n">
-        <v>29.16949494949495</v>
+        <v>22.30383838383838</v>
       </c>
       <c r="I41" t="n">
-        <v>29.16949494949495</v>
+        <v>22.30383838383838</v>
       </c>
       <c r="J41" t="n">
-        <v>33.33656565656565</v>
+        <v>25.490101010101</v>
       </c>
       <c r="K41" t="n">
-        <v>20.83535353535353</v>
+        <v>15.93131313131313</v>
       </c>
       <c r="L41" t="n">
-        <v>20.83535353535353</v>
+        <v>15.93131313131313</v>
       </c>
       <c r="M41" t="n">
-        <v>33.33656565656565</v>
+        <v>25.490101010101</v>
       </c>
       <c r="N41" t="n">
-        <v>20.83535353535353</v>
+        <v>15.93131313131313</v>
       </c>
       <c r="O41" t="n">
-        <v>16.66828282828282</v>
+        <v>12.7450505050505</v>
       </c>
       <c r="P41" t="n">
-        <v>25.00242424242424</v>
+        <v>19.11757575757575</v>
       </c>
       <c r="Q41" t="n">
-        <v>20.83535353535353</v>
+        <v>15.93131313131313</v>
       </c>
       <c r="R41" t="n">
-        <v>12.50121212121212</v>
+        <v>9.558787878787877</v>
       </c>
       <c r="S41" t="n">
-        <v>20.83535353535353</v>
+        <v>15.93131313131313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2401</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>1400.53</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>7484.48</v>
+        <v>412.54</v>
       </c>
       <c r="D42" t="n">
-        <v>1069.211428571429</v>
+        <v>37.50363636363635</v>
       </c>
       <c r="E42" t="n">
-        <v>840.0946938775509</v>
+        <v>29.16949494949495</v>
       </c>
       <c r="F42" t="n">
-        <v>763.7224489795918</v>
+        <v>29.16949494949495</v>
       </c>
       <c r="G42" t="n">
-        <v>763.7224489795918</v>
+        <v>33.33656565656565</v>
       </c>
       <c r="H42" t="n">
-        <v>687.3502040816326</v>
+        <v>29.16949494949495</v>
       </c>
       <c r="I42" t="n">
-        <v>534.6057142857143</v>
+        <v>29.16949494949495</v>
       </c>
       <c r="J42" t="n">
-        <v>381.8612244897959</v>
+        <v>33.33656565656565</v>
       </c>
       <c r="K42" t="n">
-        <v>305.4889795918367</v>
+        <v>20.83535353535353</v>
       </c>
       <c r="L42" t="n">
-        <v>305.4889795918367</v>
+        <v>20.83535353535353</v>
       </c>
       <c r="M42" t="n">
-        <v>916.46693877551</v>
+        <v>33.33656565656565</v>
       </c>
       <c r="N42" t="n">
-        <v>305.4889795918367</v>
+        <v>20.83535353535353</v>
       </c>
       <c r="O42" t="n">
-        <v>229.1167346938775</v>
+        <v>16.66828282828282</v>
       </c>
       <c r="P42" t="n">
-        <v>152.7444897959184</v>
+        <v>25.00242424242424</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.37224489795918</v>
+        <v>20.83535353535353</v>
       </c>
       <c r="R42" t="n">
-        <v>76.37224489795918</v>
+        <v>12.50121212121212</v>
       </c>
       <c r="S42" t="n">
-        <v>76.37224489795918</v>
+        <v>20.83535353535353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>203</v>
+        <v>2401</v>
       </c>
       <c r="B43" t="n">
-        <v>245.06</v>
+        <v>1400.52</v>
       </c>
       <c r="C43" t="n">
-        <v>1192.86</v>
+        <v>7484.48</v>
       </c>
       <c r="D43" t="n">
-        <v>108.4418181818181</v>
+        <v>1069.211428571429</v>
       </c>
       <c r="E43" t="n">
-        <v>84.34363636363635</v>
+        <v>840.0946938775509</v>
       </c>
       <c r="F43" t="n">
-        <v>84.34363636363635</v>
+        <v>763.7224489795918</v>
       </c>
       <c r="G43" t="n">
-        <v>96.39272727272724</v>
+        <v>763.7224489795918</v>
       </c>
       <c r="H43" t="n">
-        <v>84.34363636363635</v>
+        <v>687.3502040816326</v>
       </c>
       <c r="I43" t="n">
-        <v>84.34363636363635</v>
+        <v>534.6057142857143</v>
       </c>
       <c r="J43" t="n">
-        <v>96.39272727272724</v>
+        <v>381.8612244897959</v>
       </c>
       <c r="K43" t="n">
-        <v>60.24545454545453</v>
+        <v>305.4889795918367</v>
       </c>
       <c r="L43" t="n">
-        <v>60.24545454545453</v>
+        <v>305.4889795918367</v>
       </c>
       <c r="M43" t="n">
-        <v>96.39272727272724</v>
+        <v>916.46693877551</v>
       </c>
       <c r="N43" t="n">
-        <v>60.24545454545453</v>
+        <v>305.4889795918367</v>
       </c>
       <c r="O43" t="n">
-        <v>48.19636363636362</v>
+        <v>229.1167346938775</v>
       </c>
       <c r="P43" t="n">
-        <v>72.29454545454543</v>
+        <v>152.7444897959184</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.24545454545453</v>
+        <v>76.37224489795918</v>
       </c>
       <c r="R43" t="n">
-        <v>36.14727272727271</v>
+        <v>76.37224489795918</v>
       </c>
       <c r="S43" t="n">
-        <v>60.24545454545453</v>
+        <v>76.37224489795918</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
-        <v>294.99</v>
+        <v>245.06</v>
       </c>
       <c r="C44" t="n">
-        <v>1435.95</v>
+        <v>1192.86</v>
       </c>
       <c r="D44" t="n">
-        <v>130.5409090909091</v>
+        <v>108.4418181818181</v>
       </c>
       <c r="E44" t="n">
-        <v>101.5318181818182</v>
+        <v>84.34363636363635</v>
       </c>
       <c r="F44" t="n">
-        <v>101.5318181818182</v>
+        <v>84.34363636363635</v>
       </c>
       <c r="G44" t="n">
-        <v>116.0363636363636</v>
+        <v>96.39272727272724</v>
       </c>
       <c r="H44" t="n">
-        <v>101.5318181818182</v>
+        <v>84.34363636363635</v>
       </c>
       <c r="I44" t="n">
-        <v>101.5318181818182</v>
+        <v>84.34363636363635</v>
       </c>
       <c r="J44" t="n">
-        <v>116.0363636363636</v>
+        <v>96.39272727272724</v>
       </c>
       <c r="K44" t="n">
-        <v>72.52272727272727</v>
+        <v>60.24545454545453</v>
       </c>
       <c r="L44" t="n">
-        <v>72.52272727272727</v>
+        <v>60.24545454545453</v>
       </c>
       <c r="M44" t="n">
-        <v>116.0363636363636</v>
+        <v>96.39272727272724</v>
       </c>
       <c r="N44" t="n">
-        <v>72.52272727272727</v>
+        <v>60.24545454545453</v>
       </c>
       <c r="O44" t="n">
-        <v>58.0181818181818</v>
+        <v>48.19636363636362</v>
       </c>
       <c r="P44" t="n">
-        <v>87.02727272727272</v>
+        <v>72.29454545454543</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.52272727272727</v>
+        <v>60.24545454545453</v>
       </c>
       <c r="R44" t="n">
-        <v>43.51363636363636</v>
+        <v>36.14727272727271</v>
       </c>
       <c r="S44" t="n">
-        <v>72.52272727272727</v>
+        <v>60.24545454545453</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6609</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
-        <v>1361.92</v>
+        <v>294.99</v>
       </c>
       <c r="C45" t="n">
-        <v>5664.689999999999</v>
+        <v>1435.95</v>
       </c>
       <c r="D45" t="n">
-        <v>679.7627999999997</v>
+        <v>130.5409090909091</v>
       </c>
       <c r="E45" t="n">
-        <v>566.4689999999998</v>
+        <v>101.5318181818182</v>
       </c>
       <c r="F45" t="n">
-        <v>509.8220999999999</v>
+        <v>101.5318181818182</v>
       </c>
       <c r="G45" t="n">
-        <v>509.8220999999999</v>
+        <v>116.0363636363636</v>
       </c>
       <c r="H45" t="n">
-        <v>453.1751999999999</v>
+        <v>101.5318181818182</v>
       </c>
       <c r="I45" t="n">
-        <v>453.1751999999999</v>
+        <v>101.5318181818182</v>
       </c>
       <c r="J45" t="n">
-        <v>339.8813999999999</v>
+        <v>116.0363636363636</v>
       </c>
       <c r="K45" t="n">
-        <v>283.2344999999999</v>
+        <v>72.52272727272727</v>
       </c>
       <c r="L45" t="n">
-        <v>283.2344999999999</v>
+        <v>72.52272727272727</v>
       </c>
       <c r="M45" t="n">
-        <v>623.1158999999998</v>
+        <v>116.0363636363636</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5876</v>
+        <v>72.52272727272727</v>
       </c>
       <c r="O45" t="n">
-        <v>226.5876</v>
+        <v>58.0181818181818</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9406999999999</v>
+        <v>87.02727272727272</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.2938</v>
+        <v>72.52272727272727</v>
       </c>
       <c r="R45" t="n">
-        <v>113.2938</v>
+        <v>43.51363636363636</v>
       </c>
       <c r="S45" t="n">
-        <v>113.2938</v>
+        <v>72.52272727272727</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6601</v>
+        <v>6609</v>
       </c>
       <c r="B46" t="n">
-        <v>1057.82</v>
+        <v>1361.92</v>
       </c>
       <c r="C46" t="n">
-        <v>4399.649999999999</v>
+        <v>5664.689999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>527.9579999999999</v>
+        <v>679.7627999999997</v>
       </c>
       <c r="E46" t="n">
-        <v>439.9649999999999</v>
+        <v>566.4689999999998</v>
       </c>
       <c r="F46" t="n">
-        <v>395.9684999999999</v>
+        <v>509.8220999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>395.9684999999999</v>
+        <v>509.8220999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>351.9719999999999</v>
+        <v>453.1751999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>351.9719999999999</v>
+        <v>453.1751999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>263.9789999999999</v>
+        <v>339.8813999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>219.9824999999999</v>
+        <v>283.2344999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>219.9824999999999</v>
+        <v>283.2344999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>483.9614999999998</v>
+        <v>623.1158999999998</v>
       </c>
       <c r="N46" t="n">
-        <v>175.986</v>
+        <v>226.5876</v>
       </c>
       <c r="O46" t="n">
-        <v>175.986</v>
+        <v>226.5876</v>
       </c>
       <c r="P46" t="n">
-        <v>131.9895</v>
+        <v>169.9406999999999</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.99299999999998</v>
+        <v>113.2938</v>
       </c>
       <c r="R46" t="n">
-        <v>87.99299999999998</v>
+        <v>113.2938</v>
       </c>
       <c r="S46" t="n">
-        <v>87.99299999999998</v>
+        <v>113.2938</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6506</v>
+        <v>6601</v>
       </c>
       <c r="B47" t="n">
-        <v>1166.85</v>
+        <v>1057.82</v>
       </c>
       <c r="C47" t="n">
-        <v>5250.82</v>
+        <v>4399.649999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>630.0984</v>
+        <v>527.9579999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>472.5737999999999</v>
+        <v>439.9649999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>472.5737999999999</v>
+        <v>395.9684999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>472.5737999999999</v>
+        <v>395.9684999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>472.5737999999999</v>
+        <v>351.9719999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>420.0656</v>
+        <v>351.9719999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>315.0492</v>
+        <v>263.9789999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>262.541</v>
+        <v>219.9824999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>262.541</v>
+        <v>219.9824999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>577.5902</v>
+        <v>483.9614999999998</v>
       </c>
       <c r="N47" t="n">
-        <v>210.0328</v>
+        <v>175.986</v>
       </c>
       <c r="O47" t="n">
-        <v>210.0328</v>
+        <v>175.986</v>
       </c>
       <c r="P47" t="n">
-        <v>157.5246</v>
+        <v>131.9895</v>
       </c>
       <c r="Q47" t="n">
-        <v>105.0164</v>
+        <v>87.99299999999998</v>
       </c>
       <c r="R47" t="n">
-        <v>105.0164</v>
+        <v>87.99299999999998</v>
       </c>
       <c r="S47" t="n">
-        <v>105.0164</v>
+        <v>87.99299999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6801</v>
+        <v>6506</v>
       </c>
       <c r="B48" t="n">
-        <v>6154.12</v>
+        <v>1166.85</v>
       </c>
       <c r="C48" t="n">
-        <v>32999.66</v>
+        <v>5250.82</v>
       </c>
       <c r="D48" t="n">
-        <v>4289.955800000001</v>
+        <v>630.0984</v>
       </c>
       <c r="E48" t="n">
-        <v>3629.9626</v>
+        <v>472.5737999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>3629.9626</v>
+        <v>472.5737999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>3299.966</v>
+        <v>472.5737999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2639.9728</v>
+        <v>472.5737999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>1979.9796</v>
+        <v>420.0656</v>
       </c>
       <c r="J48" t="n">
-        <v>1649.983</v>
+        <v>315.0492</v>
       </c>
       <c r="K48" t="n">
-        <v>1649.983</v>
+        <v>262.541</v>
       </c>
       <c r="L48" t="n">
-        <v>1649.983</v>
+        <v>262.541</v>
       </c>
       <c r="M48" t="n">
-        <v>3629.9626</v>
+        <v>577.5902</v>
       </c>
       <c r="N48" t="n">
-        <v>1319.9864</v>
+        <v>210.0328</v>
       </c>
       <c r="O48" t="n">
-        <v>989.9898000000001</v>
+        <v>210.0328</v>
       </c>
       <c r="P48" t="n">
-        <v>989.9898000000001</v>
+        <v>157.5246</v>
       </c>
       <c r="Q48" t="n">
-        <v>659.9932000000001</v>
+        <v>105.0164</v>
       </c>
       <c r="R48" t="n">
-        <v>329.9966000000001</v>
+        <v>105.0164</v>
       </c>
       <c r="S48" t="n">
-        <v>659.9932000000001</v>
+        <v>105.0164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1101</v>
+        <v>6801</v>
       </c>
       <c r="B49" t="n">
-        <v>1924.27</v>
+        <v>6154.12</v>
       </c>
       <c r="C49" t="n">
-        <v>7810.579999999998</v>
+        <v>32999.66</v>
       </c>
       <c r="D49" t="n">
-        <v>1093.4812</v>
+        <v>4289.955800000001</v>
       </c>
       <c r="E49" t="n">
-        <v>781.0579999999998</v>
+        <v>3629.9626</v>
       </c>
       <c r="F49" t="n">
-        <v>781.0579999999998</v>
+        <v>3629.9626</v>
       </c>
       <c r="G49" t="n">
-        <v>781.0579999999998</v>
+        <v>3299.966</v>
       </c>
       <c r="H49" t="n">
-        <v>702.9521999999998</v>
+        <v>2639.9728</v>
       </c>
       <c r="I49" t="n">
-        <v>546.7406</v>
+        <v>1979.9796</v>
       </c>
       <c r="J49" t="n">
-        <v>390.5289999999999</v>
+        <v>1649.983</v>
       </c>
       <c r="K49" t="n">
-        <v>390.5289999999999</v>
+        <v>1649.983</v>
       </c>
       <c r="L49" t="n">
-        <v>390.5289999999999</v>
+        <v>1649.983</v>
       </c>
       <c r="M49" t="n">
-        <v>937.2695999999997</v>
+        <v>3629.9626</v>
       </c>
       <c r="N49" t="n">
-        <v>312.4232</v>
+        <v>1319.9864</v>
       </c>
       <c r="O49" t="n">
-        <v>234.3173999999999</v>
+        <v>989.9898000000001</v>
       </c>
       <c r="P49" t="n">
-        <v>156.2116</v>
+        <v>989.9898000000001</v>
       </c>
       <c r="Q49" t="n">
-        <v>156.2116</v>
+        <v>659.9932000000001</v>
       </c>
       <c r="R49" t="n">
-        <v>78.10579999999999</v>
+        <v>329.9966000000001</v>
       </c>
       <c r="S49" t="n">
-        <v>78.10579999999999</v>
+        <v>659.9932000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1382.83</v>
-      </c>
+        <v>6608</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>5612.779999999999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>785.7891999999999</v>
-      </c>
-      <c r="E50" t="n">
-        <v>561.2779999999999</v>
-      </c>
-      <c r="F50" t="n">
-        <v>561.2779999999999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>561.2779999999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>505.1501999999999</v>
-      </c>
-      <c r="I50" t="n">
-        <v>392.8946</v>
-      </c>
-      <c r="J50" t="n">
-        <v>280.639</v>
-      </c>
-      <c r="K50" t="n">
-        <v>280.639</v>
-      </c>
-      <c r="L50" t="n">
-        <v>280.639</v>
-      </c>
-      <c r="M50" t="n">
-        <v>673.5335999999998</v>
-      </c>
-      <c r="N50" t="n">
-        <v>224.5111999999999</v>
-      </c>
-      <c r="O50" t="n">
-        <v>168.3833999999999</v>
-      </c>
-      <c r="P50" t="n">
-        <v>112.2556</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>112.2556</v>
-      </c>
-      <c r="R50" t="n">
-        <v>56.12779999999999</v>
-      </c>
-      <c r="S50" t="n">
-        <v>56.12779999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
-        <v>1017.76</v>
+        <v>1924.27</v>
       </c>
       <c r="C51" t="n">
-        <v>4131.109999999999</v>
+        <v>7810.579999999998</v>
       </c>
       <c r="D51" t="n">
-        <v>578.3553999999999</v>
+        <v>1093.4812</v>
       </c>
       <c r="E51" t="n">
-        <v>413.1109999999999</v>
+        <v>781.0579999999998</v>
       </c>
       <c r="F51" t="n">
-        <v>413.1109999999999</v>
+        <v>781.0579999999998</v>
       </c>
       <c r="G51" t="n">
-        <v>413.1109999999999</v>
+        <v>781.0579999999998</v>
       </c>
       <c r="H51" t="n">
-        <v>371.7998999999999</v>
+        <v>702.9521999999998</v>
       </c>
       <c r="I51" t="n">
-        <v>289.1777</v>
+        <v>546.7406</v>
       </c>
       <c r="J51" t="n">
-        <v>206.5554999999999</v>
+        <v>390.5289999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>206.5554999999999</v>
+        <v>390.5289999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>206.5554999999999</v>
+        <v>390.5289999999999</v>
       </c>
       <c r="M51" t="n">
-        <v>495.7331999999998</v>
+        <v>937.2695999999997</v>
       </c>
       <c r="N51" t="n">
-        <v>165.2444</v>
+        <v>312.4232</v>
       </c>
       <c r="O51" t="n">
-        <v>123.9333</v>
+        <v>234.3173999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>82.62219999999998</v>
+        <v>156.2116</v>
       </c>
       <c r="Q51" t="n">
-        <v>82.62219999999998</v>
+        <v>156.2116</v>
       </c>
       <c r="R51" t="n">
-        <v>41.31109999999999</v>
+        <v>78.10579999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>41.31109999999999</v>
+        <v>78.10579999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="n">
-        <v>745.73</v>
+        <v>1382.83</v>
       </c>
       <c r="C52" t="n">
-        <v>3027.079999999999</v>
+        <v>5612.779999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>423.7911999999999</v>
+        <v>785.7891999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>302.7079999999999</v>
+        <v>561.2779999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>302.7079999999999</v>
+        <v>561.2779999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>302.7079999999999</v>
+        <v>561.2779999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>272.4372</v>
+        <v>505.1501999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>211.8956</v>
+        <v>392.8946</v>
       </c>
       <c r="J52" t="n">
-        <v>151.354</v>
+        <v>280.639</v>
       </c>
       <c r="K52" t="n">
-        <v>151.354</v>
+        <v>280.639</v>
       </c>
       <c r="L52" t="n">
-        <v>151.354</v>
+        <v>280.639</v>
       </c>
       <c r="M52" t="n">
-        <v>363.2495999999999</v>
+        <v>673.5335999999998</v>
       </c>
       <c r="N52" t="n">
-        <v>121.0832</v>
+        <v>224.5111999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>90.81239999999997</v>
+        <v>168.3833999999999</v>
       </c>
       <c r="P52" t="n">
-        <v>60.54159999999999</v>
+        <v>112.2556</v>
       </c>
       <c r="Q52" t="n">
-        <v>60.54159999999999</v>
+        <v>112.2556</v>
       </c>
       <c r="R52" t="n">
-        <v>30.27079999999999</v>
+        <v>56.12779999999999</v>
       </c>
       <c r="S52" t="n">
-        <v>30.27079999999999</v>
+        <v>56.12779999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B53" t="n">
-        <v>729.7</v>
+        <v>1017.76</v>
       </c>
       <c r="C53" t="n">
-        <v>2981.209999999999</v>
+        <v>4131.109999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>354.2031683168316</v>
+        <v>578.3553999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>295.169306930693</v>
+        <v>413.1109999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>295.169306930693</v>
+        <v>413.1109999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>295.169306930693</v>
+        <v>413.1109999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>265.6523762376237</v>
+        <v>371.7998999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>206.6185148514851</v>
+        <v>289.1777</v>
       </c>
       <c r="J53" t="n">
-        <v>147.5846534653465</v>
+        <v>206.5554999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>147.5846534653465</v>
+        <v>206.5554999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>147.5846534653465</v>
+        <v>206.5554999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>324.6862376237623</v>
+        <v>495.7331999999998</v>
       </c>
       <c r="N53" t="n">
-        <v>147.5846534653465</v>
+        <v>165.2444</v>
       </c>
       <c r="O53" t="n">
-        <v>118.0677227722772</v>
+        <v>123.9333</v>
       </c>
       <c r="P53" t="n">
-        <v>88.55079207920789</v>
+        <v>82.62219999999998</v>
       </c>
       <c r="Q53" t="n">
-        <v>59.0338613861386</v>
+        <v>82.62219999999998</v>
       </c>
       <c r="R53" t="n">
-        <v>29.5169306930693</v>
+        <v>41.31109999999999</v>
       </c>
       <c r="S53" t="n">
-        <v>59.0338613861386</v>
+        <v>41.31109999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="n">
-        <v>562.61</v>
+        <v>745.73</v>
       </c>
       <c r="C54" t="n">
-        <v>2298.57</v>
+        <v>3027.079999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>273.0974257425742</v>
+        <v>423.7911999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>227.5811881188118</v>
+        <v>302.7079999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>227.5811881188118</v>
+        <v>302.7079999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>227.5811881188118</v>
+        <v>302.7079999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>204.8230693069307</v>
+        <v>272.4372</v>
       </c>
       <c r="I54" t="n">
-        <v>159.3068316831683</v>
+        <v>211.8956</v>
       </c>
       <c r="J54" t="n">
-        <v>113.7905940594059</v>
+        <v>151.354</v>
       </c>
       <c r="K54" t="n">
-        <v>113.7905940594059</v>
+        <v>151.354</v>
       </c>
       <c r="L54" t="n">
-        <v>113.7905940594059</v>
+        <v>151.354</v>
       </c>
       <c r="M54" t="n">
-        <v>250.339306930693</v>
+        <v>363.2495999999999</v>
       </c>
       <c r="N54" t="n">
-        <v>113.7905940594059</v>
+        <v>121.0832</v>
       </c>
       <c r="O54" t="n">
-        <v>91.03247524752474</v>
+        <v>90.81239999999997</v>
       </c>
       <c r="P54" t="n">
-        <v>68.27435643564355</v>
+        <v>60.54159999999999</v>
       </c>
       <c r="Q54" t="n">
-        <v>45.51623762376237</v>
+        <v>60.54159999999999</v>
       </c>
       <c r="R54" t="n">
-        <v>22.75811881188119</v>
+        <v>30.27079999999999</v>
       </c>
       <c r="S54" t="n">
-        <v>45.51623762376237</v>
+        <v>30.27079999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
-        <v>1676.69</v>
+        <v>729.7</v>
       </c>
       <c r="C55" t="n">
-        <v>6794.029999999998</v>
+        <v>2981.209999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>892.1453535353533</v>
+        <v>354.2031683168316</v>
       </c>
       <c r="E55" t="n">
-        <v>686.2656565656563</v>
+        <v>295.169306930693</v>
       </c>
       <c r="F55" t="n">
-        <v>686.2656565656563</v>
+        <v>295.169306930693</v>
       </c>
       <c r="G55" t="n">
-        <v>617.6390909090907</v>
+        <v>295.169306930693</v>
       </c>
       <c r="H55" t="n">
-        <v>549.0125252525251</v>
+        <v>265.6523762376237</v>
       </c>
       <c r="I55" t="n">
-        <v>480.3859595959595</v>
+        <v>206.6185148514851</v>
       </c>
       <c r="J55" t="n">
-        <v>411.7593939393938</v>
+        <v>147.5846534653465</v>
       </c>
       <c r="K55" t="n">
-        <v>343.1328282828281</v>
+        <v>147.5846534653465</v>
       </c>
       <c r="L55" t="n">
-        <v>343.1328282828281</v>
+        <v>147.5846534653465</v>
       </c>
       <c r="M55" t="n">
-        <v>754.892222222222</v>
+        <v>324.6862376237623</v>
       </c>
       <c r="N55" t="n">
-        <v>274.5062626262625</v>
+        <v>147.5846534653465</v>
       </c>
       <c r="O55" t="n">
-        <v>205.8796969696969</v>
+        <v>118.0677227722772</v>
       </c>
       <c r="P55" t="n">
-        <v>205.8796969696969</v>
+        <v>88.55079207920789</v>
       </c>
       <c r="Q55" t="n">
-        <v>137.2531313131313</v>
+        <v>59.0338613861386</v>
       </c>
       <c r="R55" t="n">
-        <v>68.62656565656563</v>
+        <v>29.5169306930693</v>
       </c>
       <c r="S55" t="n">
-        <v>137.2531313131313</v>
+        <v>59.0338613861386</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2201</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="n">
-        <v>1812.08</v>
+        <v>562.61</v>
       </c>
       <c r="C56" t="n">
-        <v>7342.189999999998</v>
+        <v>2298.57</v>
       </c>
       <c r="D56" t="n">
-        <v>964.1259595959592</v>
+        <v>273.0974257425742</v>
       </c>
       <c r="E56" t="n">
-        <v>741.6353535353533</v>
+        <v>227.5811881188118</v>
       </c>
       <c r="F56" t="n">
-        <v>741.6353535353533</v>
+        <v>227.5811881188118</v>
       </c>
       <c r="G56" t="n">
-        <v>667.4718181818179</v>
+        <v>227.5811881188118</v>
       </c>
       <c r="H56" t="n">
-        <v>593.3082828282826</v>
+        <v>204.8230693069307</v>
       </c>
       <c r="I56" t="n">
-        <v>519.1447474747473</v>
+        <v>159.3068316831683</v>
       </c>
       <c r="J56" t="n">
-        <v>444.981212121212</v>
+        <v>113.7905940594059</v>
       </c>
       <c r="K56" t="n">
-        <v>370.8176767676766</v>
+        <v>113.7905940594059</v>
       </c>
       <c r="L56" t="n">
-        <v>370.8176767676766</v>
+        <v>113.7905940594059</v>
       </c>
       <c r="M56" t="n">
-        <v>815.7988888888885</v>
+        <v>250.339306930693</v>
       </c>
       <c r="N56" t="n">
-        <v>296.6541414141413</v>
+        <v>113.7905940594059</v>
       </c>
       <c r="O56" t="n">
-        <v>222.490606060606</v>
+        <v>91.03247524752474</v>
       </c>
       <c r="P56" t="n">
-        <v>222.490606060606</v>
+        <v>68.27435643564355</v>
       </c>
       <c r="Q56" t="n">
-        <v>148.3270707070706</v>
+        <v>45.51623762376237</v>
       </c>
       <c r="R56" t="n">
-        <v>74.16353535353532</v>
+        <v>22.75811881188119</v>
       </c>
       <c r="S56" t="n">
-        <v>148.3270707070706</v>
+        <v>45.51623762376237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2302</v>
+        <v>2202</v>
       </c>
       <c r="B57" t="n">
-        <v>894.54</v>
+        <v>1676.69</v>
       </c>
       <c r="C57" t="n">
-        <v>3710.47</v>
+        <v>6794.029999999998</v>
       </c>
       <c r="D57" t="n">
-        <v>472.9030392156862</v>
+        <v>892.1453535353533</v>
       </c>
       <c r="E57" t="n">
-        <v>363.771568627451</v>
+        <v>686.2656565656563</v>
       </c>
       <c r="F57" t="n">
-        <v>363.771568627451</v>
+        <v>686.2656565656563</v>
       </c>
       <c r="G57" t="n">
-        <v>363.771568627451</v>
+        <v>617.6390909090907</v>
       </c>
       <c r="H57" t="n">
-        <v>327.3944117647058</v>
+        <v>549.0125252525251</v>
       </c>
       <c r="I57" t="n">
-        <v>291.0172549019608</v>
+        <v>480.3859595959595</v>
       </c>
       <c r="J57" t="n">
-        <v>218.2629411764706</v>
+        <v>411.7593939393938</v>
       </c>
       <c r="K57" t="n">
-        <v>181.8857843137255</v>
+        <v>343.1328282828281</v>
       </c>
       <c r="L57" t="n">
-        <v>181.8857843137255</v>
+        <v>343.1328282828281</v>
       </c>
       <c r="M57" t="n">
-        <v>400.1487254901961</v>
+        <v>754.892222222222</v>
       </c>
       <c r="N57" t="n">
-        <v>145.5086274509804</v>
+        <v>274.5062626262625</v>
       </c>
       <c r="O57" t="n">
-        <v>109.1314705882353</v>
+        <v>205.8796969696969</v>
       </c>
       <c r="P57" t="n">
-        <v>109.1314705882353</v>
+        <v>205.8796969696969</v>
       </c>
       <c r="Q57" t="n">
-        <v>72.75431372549019</v>
+        <v>137.2531313131313</v>
       </c>
       <c r="R57" t="n">
-        <v>36.3771568627451</v>
+        <v>68.62656565656563</v>
       </c>
       <c r="S57" t="n">
-        <v>72.75431372549019</v>
+        <v>137.2531313131313</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B58" t="n">
-        <v>1629.09</v>
+        <v>1812.08</v>
       </c>
       <c r="C58" t="n">
-        <v>6755.85</v>
+        <v>7342.189999999998</v>
       </c>
       <c r="D58" t="n">
-        <v>861.0397058823529</v>
+        <v>964.1259595959592</v>
       </c>
       <c r="E58" t="n">
-        <v>662.3382352941177</v>
+        <v>741.6353535353533</v>
       </c>
       <c r="F58" t="n">
-        <v>662.3382352941177</v>
+        <v>741.6353535353533</v>
       </c>
       <c r="G58" t="n">
-        <v>662.3382352941177</v>
+        <v>667.4718181818179</v>
       </c>
       <c r="H58" t="n">
-        <v>596.1044117647059</v>
+        <v>593.3082828282826</v>
       </c>
       <c r="I58" t="n">
-        <v>529.8705882352941</v>
+        <v>519.1447474747473</v>
       </c>
       <c r="J58" t="n">
-        <v>397.4029411764706</v>
+        <v>444.981212121212</v>
       </c>
       <c r="K58" t="n">
-        <v>331.1691176470588</v>
+        <v>370.8176767676766</v>
       </c>
       <c r="L58" t="n">
-        <v>331.1691176470588</v>
+        <v>370.8176767676766</v>
       </c>
       <c r="M58" t="n">
-        <v>728.5720588235295</v>
+        <v>815.7988888888885</v>
       </c>
       <c r="N58" t="n">
-        <v>264.9352941176471</v>
+        <v>296.6541414141413</v>
       </c>
       <c r="O58" t="n">
-        <v>198.7014705882353</v>
+        <v>222.490606060606</v>
       </c>
       <c r="P58" t="n">
-        <v>198.7014705882353</v>
+        <v>222.490606060606</v>
       </c>
       <c r="Q58" t="n">
-        <v>132.4676470588235</v>
+        <v>148.3270707070706</v>
       </c>
       <c r="R58" t="n">
-        <v>66.23382352941177</v>
+        <v>74.16353535353532</v>
       </c>
       <c r="S58" t="n">
-        <v>132.4676470588235</v>
+        <v>148.3270707070706</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2102</v>
+        <v>2302</v>
       </c>
       <c r="B59" t="n">
-        <v>1594.13</v>
+        <v>894.54</v>
       </c>
       <c r="C59" t="n">
-        <v>7173.599999999999</v>
+        <v>3710.47</v>
       </c>
       <c r="D59" t="n">
-        <v>869.5272727272725</v>
+        <v>472.9030392156862</v>
       </c>
       <c r="E59" t="n">
-        <v>724.6060606060604</v>
+        <v>363.771568627451</v>
       </c>
       <c r="F59" t="n">
-        <v>724.6060606060604</v>
+        <v>363.771568627451</v>
       </c>
       <c r="G59" t="n">
-        <v>724.6060606060604</v>
+        <v>363.771568627451</v>
       </c>
       <c r="H59" t="n">
-        <v>579.6848484848483</v>
+        <v>327.3944117647058</v>
       </c>
       <c r="I59" t="n">
-        <v>507.2242424242423</v>
+        <v>291.0172549019608</v>
       </c>
       <c r="J59" t="n">
-        <v>434.7636363636362</v>
+        <v>218.2629411764706</v>
       </c>
       <c r="K59" t="n">
-        <v>362.3030303030302</v>
+        <v>181.8857843137255</v>
       </c>
       <c r="L59" t="n">
-        <v>362.3030303030302</v>
+        <v>181.8857843137255</v>
       </c>
       <c r="M59" t="n">
-        <v>797.0666666666665</v>
+        <v>400.1487254901961</v>
       </c>
       <c r="N59" t="n">
-        <v>289.8424242424242</v>
+        <v>145.5086274509804</v>
       </c>
       <c r="O59" t="n">
-        <v>217.3818181818181</v>
+        <v>109.1314705882353</v>
       </c>
       <c r="P59" t="n">
-        <v>217.3818181818181</v>
+        <v>109.1314705882353</v>
       </c>
       <c r="Q59" t="n">
-        <v>144.9212121212121</v>
+        <v>72.75431372549019</v>
       </c>
       <c r="R59" t="n">
-        <v>72.46060606060604</v>
+        <v>36.3771568627451</v>
       </c>
       <c r="S59" t="n">
-        <v>144.9212121212121</v>
+        <v>72.75431372549019</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B60" t="n">
-        <v>1181.7</v>
+        <v>1629.09</v>
       </c>
       <c r="C60" t="n">
-        <v>5267.009999999998</v>
+        <v>6755.85</v>
       </c>
       <c r="D60" t="n">
-        <v>638.4254545454544</v>
+        <v>861.0397058823529</v>
       </c>
       <c r="E60" t="n">
-        <v>532.021212121212</v>
+        <v>662.3382352941177</v>
       </c>
       <c r="F60" t="n">
-        <v>532.021212121212</v>
+        <v>662.3382352941177</v>
       </c>
       <c r="G60" t="n">
-        <v>532.021212121212</v>
+        <v>662.3382352941177</v>
       </c>
       <c r="H60" t="n">
-        <v>425.6169696969696</v>
+        <v>596.1044117647059</v>
       </c>
       <c r="I60" t="n">
-        <v>372.4148484848484</v>
+        <v>529.8705882352941</v>
       </c>
       <c r="J60" t="n">
-        <v>319.2127272727272</v>
+        <v>397.4029411764706</v>
       </c>
       <c r="K60" t="n">
-        <v>266.010606060606</v>
+        <v>331.1691176470588</v>
       </c>
       <c r="L60" t="n">
-        <v>266.010606060606</v>
+        <v>331.1691176470588</v>
       </c>
       <c r="M60" t="n">
-        <v>585.2233333333331</v>
+        <v>728.5720588235295</v>
       </c>
       <c r="N60" t="n">
-        <v>212.8084848484848</v>
+        <v>264.9352941176471</v>
       </c>
       <c r="O60" t="n">
-        <v>159.6063636363636</v>
+        <v>198.7014705882353</v>
       </c>
       <c r="P60" t="n">
-        <v>159.6063636363636</v>
+        <v>198.7014705882353</v>
       </c>
       <c r="Q60" t="n">
-        <v>106.4042424242424</v>
+        <v>132.4676470588235</v>
       </c>
       <c r="R60" t="n">
-        <v>53.2021212121212</v>
+        <v>66.23382352941177</v>
       </c>
       <c r="S60" t="n">
-        <v>106.4042424242424</v>
+        <v>132.4676470588235</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1204</v>
+        <v>2102</v>
       </c>
       <c r="B61" t="n">
-        <v>1337.16</v>
+        <v>1594.13</v>
       </c>
       <c r="C61" t="n">
-        <v>5462.959999999999</v>
+        <v>7173.599999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>649.0645544554453</v>
+        <v>869.5272727272725</v>
       </c>
       <c r="E61" t="n">
-        <v>540.8871287128711</v>
+        <v>724.6060606060604</v>
       </c>
       <c r="F61" t="n">
-        <v>540.8871287128711</v>
+        <v>724.6060606060604</v>
       </c>
       <c r="G61" t="n">
-        <v>540.8871287128711</v>
+        <v>724.6060606060604</v>
       </c>
       <c r="H61" t="n">
-        <v>486.7984158415841</v>
+        <v>579.6848484848483</v>
       </c>
       <c r="I61" t="n">
-        <v>378.6209900990099</v>
+        <v>507.2242424242423</v>
       </c>
       <c r="J61" t="n">
-        <v>270.4435643564356</v>
+        <v>434.7636363636362</v>
       </c>
       <c r="K61" t="n">
-        <v>270.4435643564356</v>
+        <v>362.3030303030302</v>
       </c>
       <c r="L61" t="n">
-        <v>270.4435643564356</v>
+        <v>362.3030303030302</v>
       </c>
       <c r="M61" t="n">
-        <v>594.9758415841583</v>
+        <v>797.0666666666665</v>
       </c>
       <c r="N61" t="n">
-        <v>270.4435643564356</v>
+        <v>289.8424242424242</v>
       </c>
       <c r="O61" t="n">
-        <v>216.3548514851485</v>
+        <v>217.3818181818181</v>
       </c>
       <c r="P61" t="n">
-        <v>162.2661386138613</v>
+        <v>217.3818181818181</v>
       </c>
       <c r="Q61" t="n">
-        <v>108.1774257425742</v>
+        <v>144.9212121212121</v>
       </c>
       <c r="R61" t="n">
-        <v>54.08871287128712</v>
+        <v>72.46060606060604</v>
       </c>
       <c r="S61" t="n">
-        <v>108.1774257425742</v>
+        <v>144.9212121212121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1205</v>
+        <v>2103</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1181.7</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5267.009999999998</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>638.4254545454544</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>532.021212121212</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>532.021212121212</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>532.021212121212</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>425.6169696969696</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>372.4148484848484</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>319.2127272727272</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>266.010606060606</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>266.010606060606</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>585.2233333333331</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>212.8084848484848</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>159.6063636363636</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>159.6063636363636</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>106.4042424242424</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>53.2021212121212</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>106.4042424242424</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6501</v>
+        <v>1204</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1337.16</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5462.959999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>649.0645544554453</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>540.8871287128711</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>540.8871287128711</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>540.8871287128711</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>486.7984158415841</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>378.6209900990099</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>270.4435643564356</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>270.4435643564356</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>270.4435643564356</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>594.9758415841583</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>270.4435643564356</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>216.3548514851485</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>162.2661386138613</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>108.1774257425742</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>54.08871287128712</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>108.1774257425742</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2017.04</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>9076.68</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1089.2016</v>
-      </c>
-      <c r="E64" t="n">
-        <v>816.9012</v>
-      </c>
-      <c r="F64" t="n">
-        <v>816.9012</v>
-      </c>
-      <c r="G64" t="n">
-        <v>816.9012</v>
-      </c>
-      <c r="H64" t="n">
-        <v>816.9012</v>
-      </c>
-      <c r="I64" t="n">
-        <v>726.1344</v>
-      </c>
-      <c r="J64" t="n">
-        <v>544.6008</v>
-      </c>
-      <c r="K64" t="n">
-        <v>453.8340000000001</v>
-      </c>
-      <c r="L64" t="n">
-        <v>453.8340000000001</v>
-      </c>
-      <c r="M64" t="n">
-        <v>998.4348</v>
-      </c>
-      <c r="N64" t="n">
-        <v>363.0672</v>
-      </c>
-      <c r="O64" t="n">
-        <v>363.0672</v>
-      </c>
-      <c r="P64" t="n">
-        <v>272.3004</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>181.5336</v>
-      </c>
-      <c r="R64" t="n">
-        <v>181.5336</v>
-      </c>
-      <c r="S64" t="n">
-        <v>181.5336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5188.71</v>
-      </c>
+        <v>6501</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>27823.43</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3617.0459</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3060.5773</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3060.5773</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2782.343</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2225.8744</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1669.4058</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1391.1715</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1391.1715</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1391.1715</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3060.5773</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1112.9372</v>
-      </c>
-      <c r="O65" t="n">
-        <v>834.7029</v>
-      </c>
-      <c r="P65" t="n">
-        <v>834.7029</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>556.4686</v>
-      </c>
-      <c r="R65" t="n">
-        <v>278.2343</v>
-      </c>
-      <c r="S65" t="n">
-        <v>556.4686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3307</v>
+        <v>6502</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2017.04</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>9076.68</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1089.2016</v>
+      </c>
+      <c r="E66" t="n">
+        <v>816.9012</v>
+      </c>
+      <c r="F66" t="n">
+        <v>816.9012</v>
+      </c>
+      <c r="G66" t="n">
+        <v>816.9012</v>
+      </c>
+      <c r="H66" t="n">
+        <v>816.9012</v>
+      </c>
+      <c r="I66" t="n">
+        <v>726.1344</v>
+      </c>
+      <c r="J66" t="n">
+        <v>544.6008</v>
+      </c>
+      <c r="K66" t="n">
+        <v>453.8340000000001</v>
+      </c>
+      <c r="L66" t="n">
+        <v>453.8340000000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>998.4348</v>
+      </c>
+      <c r="N66" t="n">
+        <v>363.0672</v>
+      </c>
+      <c r="O66" t="n">
+        <v>363.0672</v>
+      </c>
+      <c r="P66" t="n">
+        <v>272.3004</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>181.5336</v>
+      </c>
+      <c r="R66" t="n">
+        <v>181.5336</v>
+      </c>
+      <c r="S66" t="n">
+        <v>181.5336</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2502</v>
+        <v>6802</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>5188.71</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>27823.42</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3617.0446</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3060.5762</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3060.5762</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2782.342</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2225.8736</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1669.4052</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1391.171</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1391.171</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1391.171</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3060.5762</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1112.9368</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>834.7026</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>834.7026</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>556.4684</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>278.2342</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>556.4684</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -4293,1359 +4077,1223 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>2502</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B70" t="n">
-        <v>608.9400000000001</v>
-      </c>
+        <v>6705</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>2740.239999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>301.4263999999999</v>
-      </c>
-      <c r="E70" t="n">
-        <v>246.6215999999999</v>
-      </c>
-      <c r="F70" t="n">
-        <v>246.6215999999999</v>
-      </c>
-      <c r="G70" t="n">
-        <v>219.2191999999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>219.2191999999999</v>
-      </c>
-      <c r="I70" t="n">
-        <v>219.2191999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>191.8168</v>
-      </c>
-      <c r="K70" t="n">
-        <v>137.012</v>
-      </c>
-      <c r="L70" t="n">
-        <v>137.012</v>
-      </c>
-      <c r="M70" t="n">
-        <v>274.0239999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>109.6096</v>
-      </c>
-      <c r="O70" t="n">
-        <v>109.6096</v>
-      </c>
-      <c r="P70" t="n">
-        <v>109.6096</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>82.20719999999997</v>
-      </c>
-      <c r="R70" t="n">
-        <v>54.80479999999999</v>
-      </c>
-      <c r="S70" t="n">
-        <v>82.20719999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B71" t="n">
-        <v>540.04</v>
-      </c>
+        <v>6803</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>2430.17</v>
-      </c>
-      <c r="D71" t="n">
-        <v>267.3186999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>218.7153</v>
-      </c>
-      <c r="F71" t="n">
-        <v>218.7153</v>
-      </c>
-      <c r="G71" t="n">
-        <v>194.4136</v>
-      </c>
-      <c r="H71" t="n">
-        <v>194.4136</v>
-      </c>
-      <c r="I71" t="n">
-        <v>194.4136</v>
-      </c>
-      <c r="J71" t="n">
-        <v>170.1119</v>
-      </c>
-      <c r="K71" t="n">
-        <v>121.5085</v>
-      </c>
-      <c r="L71" t="n">
-        <v>121.5085</v>
-      </c>
-      <c r="M71" t="n">
-        <v>243.017</v>
-      </c>
-      <c r="N71" t="n">
-        <v>97.20679999999999</v>
-      </c>
-      <c r="O71" t="n">
-        <v>97.20679999999999</v>
-      </c>
-      <c r="P71" t="n">
-        <v>97.20679999999999</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>72.90509999999998</v>
-      </c>
-      <c r="R71" t="n">
-        <v>48.60339999999999</v>
-      </c>
-      <c r="S71" t="n">
-        <v>72.90509999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B72" t="n">
-        <v>1059.95</v>
+        <v>608.9400000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>5658</v>
+        <v>2740.239999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>808.2857142857142</v>
+        <v>301.4263999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>635.0816326530611</v>
+        <v>246.6215999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>577.3469387755102</v>
+        <v>246.6215999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>577.3469387755102</v>
+        <v>219.2191999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>519.6122448979592</v>
+        <v>219.2191999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>404.1428571428571</v>
+        <v>219.2191999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>288.6734693877551</v>
+        <v>191.8168</v>
       </c>
       <c r="K72" t="n">
-        <v>230.9387755102041</v>
+        <v>137.012</v>
       </c>
       <c r="L72" t="n">
-        <v>230.9387755102041</v>
+        <v>137.012</v>
       </c>
       <c r="M72" t="n">
-        <v>692.8163265306122</v>
+        <v>274.0239999999999</v>
       </c>
       <c r="N72" t="n">
-        <v>230.9387755102041</v>
+        <v>109.6096</v>
       </c>
       <c r="O72" t="n">
-        <v>173.204081632653</v>
+        <v>109.6096</v>
       </c>
       <c r="P72" t="n">
-        <v>115.469387755102</v>
+        <v>109.6096</v>
       </c>
       <c r="Q72" t="n">
-        <v>57.73469387755102</v>
+        <v>82.20719999999997</v>
       </c>
       <c r="R72" t="n">
-        <v>57.73469387755102</v>
+        <v>54.80479999999999</v>
       </c>
       <c r="S72" t="n">
-        <v>57.73469387755102</v>
+        <v>82.20719999999997</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6611</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="n">
-        <v>1.31</v>
+        <v>540.04</v>
       </c>
       <c r="C73" t="n">
-        <v>5.909999999999998</v>
+        <v>2430.17</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7091999999999998</v>
+        <v>267.3186999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5909999999999999</v>
+        <v>218.7153</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5318999999999999</v>
+        <v>218.7153</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5318999999999999</v>
+        <v>194.4136</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4727999999999999</v>
+        <v>194.4136</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4727999999999999</v>
+        <v>194.4136</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3545999999999999</v>
+        <v>170.1119</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2954999999999999</v>
+        <v>121.5085</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2954999999999999</v>
+        <v>121.5085</v>
       </c>
       <c r="M73" t="n">
-        <v>0.6500999999999999</v>
+        <v>243.017</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2364</v>
+        <v>97.20679999999999</v>
       </c>
       <c r="O73" t="n">
-        <v>0.2364</v>
+        <v>97.20679999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>0.1773</v>
+        <v>97.20679999999999</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.1182</v>
+        <v>72.90509999999998</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1182</v>
+        <v>48.60339999999999</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1182</v>
+        <v>72.90509999999998</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6607</v>
+        <v>2402</v>
       </c>
       <c r="B74" t="n">
-        <v>987.16</v>
+        <v>1059.95</v>
       </c>
       <c r="C74" t="n">
-        <v>4105.829999999999</v>
+        <v>5658</v>
       </c>
       <c r="D74" t="n">
-        <v>492.6995999999999</v>
+        <v>808.2857142857142</v>
       </c>
       <c r="E74" t="n">
-        <v>410.5829999999999</v>
+        <v>635.0816326530611</v>
       </c>
       <c r="F74" t="n">
-        <v>369.5246999999999</v>
+        <v>577.3469387755102</v>
       </c>
       <c r="G74" t="n">
-        <v>369.5246999999999</v>
+        <v>577.3469387755102</v>
       </c>
       <c r="H74" t="n">
-        <v>328.4664</v>
+        <v>519.6122448979592</v>
       </c>
       <c r="I74" t="n">
-        <v>328.4664</v>
+        <v>404.1428571428571</v>
       </c>
       <c r="J74" t="n">
-        <v>246.3497999999999</v>
+        <v>288.6734693877551</v>
       </c>
       <c r="K74" t="n">
-        <v>205.2915</v>
+        <v>230.9387755102041</v>
       </c>
       <c r="L74" t="n">
-        <v>205.2915</v>
+        <v>230.9387755102041</v>
       </c>
       <c r="M74" t="n">
-        <v>451.6412999999999</v>
+        <v>692.8163265306122</v>
       </c>
       <c r="N74" t="n">
-        <v>164.2332</v>
+        <v>230.9387755102041</v>
       </c>
       <c r="O74" t="n">
-        <v>164.2332</v>
+        <v>173.204081632653</v>
       </c>
       <c r="P74" t="n">
-        <v>123.1749</v>
+        <v>115.469387755102</v>
       </c>
       <c r="Q74" t="n">
-        <v>82.11659999999999</v>
+        <v>57.73469387755102</v>
       </c>
       <c r="R74" t="n">
-        <v>82.11659999999999</v>
+        <v>57.73469387755102</v>
       </c>
       <c r="S74" t="n">
-        <v>82.11659999999999</v>
+        <v>57.73469387755102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B75" t="n">
-        <v>607.25</v>
-      </c>
+        <v>6611</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2321.539999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>284.2702040816325</v>
-      </c>
-      <c r="E75" t="n">
-        <v>213.2026530612244</v>
-      </c>
-      <c r="F75" t="n">
-        <v>213.2026530612244</v>
-      </c>
-      <c r="G75" t="n">
-        <v>213.2026530612244</v>
-      </c>
-      <c r="H75" t="n">
-        <v>213.2026530612244</v>
-      </c>
-      <c r="I75" t="n">
-        <v>165.8242857142857</v>
-      </c>
-      <c r="J75" t="n">
-        <v>118.4459183673469</v>
-      </c>
-      <c r="K75" t="n">
-        <v>118.4459183673469</v>
-      </c>
-      <c r="L75" t="n">
-        <v>118.4459183673469</v>
-      </c>
-      <c r="M75" t="n">
-        <v>236.8918367346938</v>
-      </c>
-      <c r="N75" t="n">
-        <v>118.4459183673469</v>
-      </c>
-      <c r="O75" t="n">
-        <v>94.75673469387752</v>
-      </c>
-      <c r="P75" t="n">
-        <v>71.06755102040813</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>47.37836734693876</v>
-      </c>
-      <c r="R75" t="n">
-        <v>47.37836734693876</v>
-      </c>
-      <c r="S75" t="n">
-        <v>47.37836734693876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3604</v>
+        <v>6607</v>
       </c>
       <c r="B76" t="n">
-        <v>647.64</v>
+        <v>987.16</v>
       </c>
       <c r="C76" t="n">
-        <v>2475.909999999999</v>
+        <v>4105.829999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>303.1726530612244</v>
+        <v>492.6995999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>227.3794897959183</v>
+        <v>410.5829999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>227.3794897959183</v>
+        <v>369.5246999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>227.3794897959183</v>
+        <v>369.5246999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>227.3794897959183</v>
+        <v>328.4664</v>
       </c>
       <c r="I76" t="n">
-        <v>176.8507142857142</v>
+        <v>328.4664</v>
       </c>
       <c r="J76" t="n">
-        <v>126.3219387755102</v>
+        <v>246.3497999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>126.3219387755102</v>
+        <v>205.2915</v>
       </c>
       <c r="L76" t="n">
-        <v>126.3219387755102</v>
+        <v>205.2915</v>
       </c>
       <c r="M76" t="n">
-        <v>252.6438775510203</v>
+        <v>451.6412999999999</v>
       </c>
       <c r="N76" t="n">
-        <v>126.3219387755102</v>
+        <v>164.2332</v>
       </c>
       <c r="O76" t="n">
-        <v>101.0575510204081</v>
+        <v>164.2332</v>
       </c>
       <c r="P76" t="n">
-        <v>75.79316326530609</v>
+        <v>123.1749</v>
       </c>
       <c r="Q76" t="n">
-        <v>50.52877551020406</v>
+        <v>82.11659999999999</v>
       </c>
       <c r="R76" t="n">
-        <v>50.52877551020406</v>
+        <v>82.11659999999999</v>
       </c>
       <c r="S76" t="n">
-        <v>50.52877551020406</v>
+        <v>82.11659999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="B77" t="n">
-        <v>274.63</v>
+        <v>607.25</v>
       </c>
       <c r="C77" t="n">
-        <v>1050.119999999999</v>
+        <v>2321.539999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>128.5861224489795</v>
+        <v>284.2702040816325</v>
       </c>
       <c r="E77" t="n">
-        <v>96.43959183673465</v>
+        <v>213.2026530612244</v>
       </c>
       <c r="F77" t="n">
-        <v>96.43959183673465</v>
+        <v>213.2026530612244</v>
       </c>
       <c r="G77" t="n">
-        <v>96.43959183673465</v>
+        <v>213.2026530612244</v>
       </c>
       <c r="H77" t="n">
-        <v>96.43959183673465</v>
+        <v>213.2026530612244</v>
       </c>
       <c r="I77" t="n">
-        <v>75.0085714285714</v>
+        <v>165.8242857142857</v>
       </c>
       <c r="J77" t="n">
-        <v>53.57755102040814</v>
+        <v>118.4459183673469</v>
       </c>
       <c r="K77" t="n">
-        <v>53.57755102040814</v>
+        <v>118.4459183673469</v>
       </c>
       <c r="L77" t="n">
-        <v>53.57755102040814</v>
+        <v>118.4459183673469</v>
       </c>
       <c r="M77" t="n">
-        <v>107.1551020408163</v>
+        <v>236.8918367346938</v>
       </c>
       <c r="N77" t="n">
-        <v>53.57755102040814</v>
+        <v>118.4459183673469</v>
       </c>
       <c r="O77" t="n">
-        <v>42.86204081632651</v>
+        <v>94.75673469387752</v>
       </c>
       <c r="P77" t="n">
-        <v>32.14653061224488</v>
+        <v>71.06755102040813</v>
       </c>
       <c r="Q77" t="n">
-        <v>21.43102040816326</v>
+        <v>47.37836734693876</v>
       </c>
       <c r="R77" t="n">
-        <v>21.43102040816326</v>
+        <v>47.37836734693876</v>
       </c>
       <c r="S77" t="n">
-        <v>21.43102040816326</v>
+        <v>47.37836734693876</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2403</v>
+        <v>3604</v>
       </c>
       <c r="B78" t="n">
-        <v>1441.27</v>
+        <v>647.64</v>
       </c>
       <c r="C78" t="n">
-        <v>7702.779999999999</v>
+        <v>2475.909999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1100.397142857143</v>
+        <v>303.1726530612244</v>
       </c>
       <c r="E78" t="n">
-        <v>864.5977551020407</v>
+        <v>227.3794897959183</v>
       </c>
       <c r="F78" t="n">
-        <v>785.9979591836735</v>
+        <v>227.3794897959183</v>
       </c>
       <c r="G78" t="n">
-        <v>785.9979591836735</v>
+        <v>227.3794897959183</v>
       </c>
       <c r="H78" t="n">
-        <v>707.398163265306</v>
+        <v>227.3794897959183</v>
       </c>
       <c r="I78" t="n">
-        <v>550.1985714285714</v>
+        <v>176.8507142857142</v>
       </c>
       <c r="J78" t="n">
-        <v>392.9989795918368</v>
+        <v>126.3219387755102</v>
       </c>
       <c r="K78" t="n">
-        <v>314.3991836734693</v>
+        <v>126.3219387755102</v>
       </c>
       <c r="L78" t="n">
-        <v>314.3991836734693</v>
+        <v>126.3219387755102</v>
       </c>
       <c r="M78" t="n">
-        <v>943.197551020408</v>
+        <v>252.6438775510203</v>
       </c>
       <c r="N78" t="n">
-        <v>314.3991836734693</v>
+        <v>126.3219387755102</v>
       </c>
       <c r="O78" t="n">
-        <v>235.799387755102</v>
+        <v>101.0575510204081</v>
       </c>
       <c r="P78" t="n">
-        <v>157.1995918367347</v>
+        <v>75.79316326530609</v>
       </c>
       <c r="Q78" t="n">
-        <v>78.59979591836733</v>
+        <v>50.52877551020406</v>
       </c>
       <c r="R78" t="n">
-        <v>78.59979591836733</v>
+        <v>50.52877551020406</v>
       </c>
       <c r="S78" t="n">
-        <v>78.59979591836733</v>
+        <v>50.52877551020406</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="B79" t="n">
-        <v>154.97</v>
+        <v>274.63</v>
       </c>
       <c r="C79" t="n">
-        <v>592.3299999999999</v>
+        <v>1050.119999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>72.53020408163263</v>
+        <v>128.5861224489795</v>
       </c>
       <c r="E79" t="n">
-        <v>54.39765306122447</v>
+        <v>96.43959183673465</v>
       </c>
       <c r="F79" t="n">
-        <v>54.39765306122447</v>
+        <v>96.43959183673465</v>
       </c>
       <c r="G79" t="n">
-        <v>54.39765306122447</v>
+        <v>96.43959183673465</v>
       </c>
       <c r="H79" t="n">
-        <v>54.39765306122447</v>
+        <v>96.43959183673465</v>
       </c>
       <c r="I79" t="n">
-        <v>42.30928571428571</v>
+        <v>75.0085714285714</v>
       </c>
       <c r="J79" t="n">
-        <v>30.22091836734693</v>
+        <v>53.57755102040814</v>
       </c>
       <c r="K79" t="n">
-        <v>30.22091836734693</v>
+        <v>53.57755102040814</v>
       </c>
       <c r="L79" t="n">
-        <v>30.22091836734693</v>
+        <v>53.57755102040814</v>
       </c>
       <c r="M79" t="n">
-        <v>60.44183673469387</v>
+        <v>107.1551020408163</v>
       </c>
       <c r="N79" t="n">
-        <v>30.22091836734693</v>
+        <v>53.57755102040814</v>
       </c>
       <c r="O79" t="n">
-        <v>24.17673469387755</v>
+        <v>42.86204081632651</v>
       </c>
       <c r="P79" t="n">
-        <v>18.13255102040816</v>
+        <v>32.14653061224488</v>
       </c>
       <c r="Q79" t="n">
-        <v>12.08836734693877</v>
+        <v>21.43102040816326</v>
       </c>
       <c r="R79" t="n">
-        <v>12.08836734693877</v>
+        <v>21.43102040816326</v>
       </c>
       <c r="S79" t="n">
-        <v>12.08836734693877</v>
+        <v>21.43102040816326</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3602</v>
+        <v>2403</v>
       </c>
       <c r="B80" t="n">
-        <v>867.13</v>
+        <v>1441.27</v>
       </c>
       <c r="C80" t="n">
-        <v>3314.579999999999</v>
+        <v>7702.779999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>405.8669387755101</v>
+        <v>1100.397142857143</v>
       </c>
       <c r="E80" t="n">
-        <v>304.4002040816325</v>
+        <v>864.5977551020407</v>
       </c>
       <c r="F80" t="n">
-        <v>304.4002040816325</v>
+        <v>785.9979591836735</v>
       </c>
       <c r="G80" t="n">
-        <v>304.4002040816325</v>
+        <v>785.9979591836735</v>
       </c>
       <c r="H80" t="n">
-        <v>304.4002040816325</v>
+        <v>707.398163265306</v>
       </c>
       <c r="I80" t="n">
-        <v>236.7557142857142</v>
+        <v>550.1985714285714</v>
       </c>
       <c r="J80" t="n">
-        <v>169.1112244897959</v>
+        <v>392.9989795918368</v>
       </c>
       <c r="K80" t="n">
-        <v>169.1112244897959</v>
+        <v>314.3991836734693</v>
       </c>
       <c r="L80" t="n">
-        <v>169.1112244897959</v>
+        <v>314.3991836734693</v>
       </c>
       <c r="M80" t="n">
-        <v>338.2224489795917</v>
+        <v>943.197551020408</v>
       </c>
       <c r="N80" t="n">
-        <v>169.1112244897959</v>
+        <v>314.3991836734693</v>
       </c>
       <c r="O80" t="n">
-        <v>135.2889795918367</v>
+        <v>235.799387755102</v>
       </c>
       <c r="P80" t="n">
-        <v>101.4667346938775</v>
+        <v>157.1995918367347</v>
       </c>
       <c r="Q80" t="n">
-        <v>67.64448979591835</v>
+        <v>78.59979591836733</v>
       </c>
       <c r="R80" t="n">
-        <v>67.64448979591835</v>
+        <v>78.59979591836733</v>
       </c>
       <c r="S80" t="n">
-        <v>67.64448979591835</v>
+        <v>78.59979591836733</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="B81" t="n">
-        <v>470.59</v>
+        <v>154.97</v>
       </c>
       <c r="C81" t="n">
-        <v>1799.309999999999</v>
+        <v>592.3299999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>220.3236734693877</v>
+        <v>72.53020408163263</v>
       </c>
       <c r="E81" t="n">
-        <v>165.2427551020407</v>
+        <v>54.39765306122447</v>
       </c>
       <c r="F81" t="n">
-        <v>165.2427551020407</v>
+        <v>54.39765306122447</v>
       </c>
       <c r="G81" t="n">
-        <v>165.2427551020407</v>
+        <v>54.39765306122447</v>
       </c>
       <c r="H81" t="n">
-        <v>165.2427551020407</v>
+        <v>54.39765306122447</v>
       </c>
       <c r="I81" t="n">
-        <v>128.5221428571428</v>
+        <v>42.30928571428571</v>
       </c>
       <c r="J81" t="n">
-        <v>91.80153061224487</v>
+        <v>30.22091836734693</v>
       </c>
       <c r="K81" t="n">
-        <v>91.80153061224487</v>
+        <v>30.22091836734693</v>
       </c>
       <c r="L81" t="n">
-        <v>91.80153061224487</v>
+        <v>30.22091836734693</v>
       </c>
       <c r="M81" t="n">
-        <v>183.6030612244897</v>
+        <v>60.44183673469387</v>
       </c>
       <c r="N81" t="n">
-        <v>91.80153061224487</v>
+        <v>30.22091836734693</v>
       </c>
       <c r="O81" t="n">
-        <v>73.4412244897959</v>
+        <v>24.17673469387755</v>
       </c>
       <c r="P81" t="n">
-        <v>55.08091836734692</v>
+        <v>18.13255102040816</v>
       </c>
       <c r="Q81" t="n">
-        <v>36.72061224489795</v>
+        <v>12.08836734693877</v>
       </c>
       <c r="R81" t="n">
-        <v>36.72061224489795</v>
+        <v>12.08836734693877</v>
       </c>
       <c r="S81" t="n">
-        <v>36.72061224489795</v>
+        <v>12.08836734693877</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B82" t="n">
-        <v>452.74</v>
+        <v>867.13</v>
       </c>
       <c r="C82" t="n">
-        <v>1731.049999999999</v>
+        <v>3314.579999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>211.9653061224489</v>
+        <v>405.8669387755101</v>
       </c>
       <c r="E82" t="n">
-        <v>158.9739795918367</v>
+        <v>304.4002040816325</v>
       </c>
       <c r="F82" t="n">
-        <v>158.9739795918367</v>
+        <v>304.4002040816325</v>
       </c>
       <c r="G82" t="n">
-        <v>158.9739795918367</v>
+        <v>304.4002040816325</v>
       </c>
       <c r="H82" t="n">
-        <v>158.9739795918367</v>
+        <v>304.4002040816325</v>
       </c>
       <c r="I82" t="n">
-        <v>123.6464285714285</v>
+        <v>236.7557142857142</v>
       </c>
       <c r="J82" t="n">
-        <v>88.31887755102038</v>
+        <v>169.1112244897959</v>
       </c>
       <c r="K82" t="n">
-        <v>88.31887755102038</v>
+        <v>169.1112244897959</v>
       </c>
       <c r="L82" t="n">
-        <v>88.31887755102038</v>
+        <v>169.1112244897959</v>
       </c>
       <c r="M82" t="n">
-        <v>176.6377551020408</v>
+        <v>338.2224489795917</v>
       </c>
       <c r="N82" t="n">
-        <v>88.31887755102038</v>
+        <v>169.1112244897959</v>
       </c>
       <c r="O82" t="n">
-        <v>70.6551020408163</v>
+        <v>135.2889795918367</v>
       </c>
       <c r="P82" t="n">
-        <v>52.99132653061223</v>
+        <v>101.4667346938775</v>
       </c>
       <c r="Q82" t="n">
-        <v>35.32755102040815</v>
+        <v>67.64448979591835</v>
       </c>
       <c r="R82" t="n">
-        <v>35.32755102040815</v>
+        <v>67.64448979591835</v>
       </c>
       <c r="S82" t="n">
-        <v>35.32755102040815</v>
+        <v>67.64448979591835</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2501</v>
+        <v>3610</v>
       </c>
       <c r="B83" t="n">
-        <v>2359.94</v>
+        <v>470.59</v>
       </c>
       <c r="C83" t="n">
-        <v>10439.7</v>
+        <v>1799.309999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1461.558</v>
+        <v>220.3236734693877</v>
       </c>
       <c r="E83" t="n">
-        <v>1148.367</v>
+        <v>165.2427551020407</v>
       </c>
       <c r="F83" t="n">
-        <v>1043.97</v>
+        <v>165.2427551020407</v>
       </c>
       <c r="G83" t="n">
-        <v>1043.97</v>
+        <v>165.2427551020407</v>
       </c>
       <c r="H83" t="n">
-        <v>939.573</v>
+        <v>165.2427551020407</v>
       </c>
       <c r="I83" t="n">
-        <v>730.7790000000001</v>
+        <v>128.5221428571428</v>
       </c>
       <c r="J83" t="n">
-        <v>521.985</v>
+        <v>91.80153061224487</v>
       </c>
       <c r="K83" t="n">
-        <v>521.985</v>
+        <v>91.80153061224487</v>
       </c>
       <c r="L83" t="n">
-        <v>417.588</v>
+        <v>91.80153061224487</v>
       </c>
       <c r="M83" t="n">
-        <v>1252.764</v>
+        <v>183.6030612244897</v>
       </c>
       <c r="N83" t="n">
-        <v>417.588</v>
+        <v>91.80153061224487</v>
       </c>
       <c r="O83" t="n">
-        <v>313.191</v>
+        <v>73.4412244897959</v>
       </c>
       <c r="P83" t="n">
-        <v>208.794</v>
+        <v>55.08091836734692</v>
       </c>
       <c r="Q83" t="n">
-        <v>208.794</v>
+        <v>36.72061224489795</v>
       </c>
       <c r="R83" t="n">
-        <v>104.397</v>
+        <v>36.72061224489795</v>
       </c>
       <c r="S83" t="n">
-        <v>104.397</v>
+        <v>36.72061224489795</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="B84" t="n">
-        <v>1232.94</v>
+        <v>452.74</v>
       </c>
       <c r="C84" t="n">
-        <v>5000.709999999998</v>
+        <v>1731.049999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>656.6588888888887</v>
+        <v>211.9653061224489</v>
       </c>
       <c r="E84" t="n">
-        <v>505.1222222222221</v>
+        <v>158.9739795918367</v>
       </c>
       <c r="F84" t="n">
-        <v>454.6099999999998</v>
+        <v>158.9739795918367</v>
       </c>
       <c r="G84" t="n">
-        <v>454.6099999999998</v>
+        <v>158.9739795918367</v>
       </c>
       <c r="H84" t="n">
-        <v>454.6099999999998</v>
+        <v>158.9739795918367</v>
       </c>
       <c r="I84" t="n">
-        <v>353.5855555555555</v>
+        <v>123.6464285714285</v>
       </c>
       <c r="J84" t="n">
-        <v>303.0733333333333</v>
+        <v>88.31887755102038</v>
       </c>
       <c r="K84" t="n">
-        <v>252.561111111111</v>
+        <v>88.31887755102038</v>
       </c>
       <c r="L84" t="n">
-        <v>252.561111111111</v>
+        <v>88.31887755102038</v>
       </c>
       <c r="M84" t="n">
-        <v>606.1466666666665</v>
+        <v>176.6377551020408</v>
       </c>
       <c r="N84" t="n">
-        <v>202.0488888888888</v>
+        <v>88.31887755102038</v>
       </c>
       <c r="O84" t="n">
-        <v>151.5366666666666</v>
+        <v>70.6551020408163</v>
       </c>
       <c r="P84" t="n">
-        <v>151.5366666666666</v>
+        <v>52.99132653061223</v>
       </c>
       <c r="Q84" t="n">
-        <v>101.0244444444444</v>
+        <v>35.32755102040815</v>
       </c>
       <c r="R84" t="n">
-        <v>50.51222222222221</v>
+        <v>35.32755102040815</v>
       </c>
       <c r="S84" t="n">
-        <v>50.51222222222221</v>
+        <v>35.32755102040815</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>304</v>
+        <v>2501</v>
       </c>
       <c r="B85" t="n">
-        <v>823.01</v>
+        <v>2359.94</v>
       </c>
       <c r="C85" t="n">
-        <v>3734.57</v>
+        <v>10439.69</v>
       </c>
       <c r="D85" t="n">
-        <v>339.5063636363636</v>
+        <v>1461.5566</v>
       </c>
       <c r="E85" t="n">
-        <v>264.0605050505051</v>
+        <v>1148.3659</v>
       </c>
       <c r="F85" t="n">
-        <v>264.0605050505051</v>
+        <v>1043.969</v>
       </c>
       <c r="G85" t="n">
-        <v>301.7834343434343</v>
+        <v>1043.969</v>
       </c>
       <c r="H85" t="n">
-        <v>301.7834343434343</v>
+        <v>939.5721</v>
       </c>
       <c r="I85" t="n">
-        <v>264.0605050505051</v>
+        <v>730.7783000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>226.3375757575757</v>
+        <v>521.9845</v>
       </c>
       <c r="K85" t="n">
-        <v>226.3375757575757</v>
+        <v>521.9845</v>
       </c>
       <c r="L85" t="n">
-        <v>226.3375757575757</v>
+        <v>417.5876</v>
       </c>
       <c r="M85" t="n">
-        <v>301.7834343434343</v>
+        <v>1252.7628</v>
       </c>
       <c r="N85" t="n">
-        <v>226.3375757575757</v>
+        <v>417.5876</v>
       </c>
       <c r="O85" t="n">
-        <v>150.8917171717171</v>
+        <v>313.1907</v>
       </c>
       <c r="P85" t="n">
-        <v>150.8917171717171</v>
+        <v>208.7938</v>
       </c>
       <c r="Q85" t="n">
-        <v>150.8917171717171</v>
+        <v>208.7938</v>
       </c>
       <c r="R85" t="n">
-        <v>113.1687878787879</v>
+        <v>104.3969</v>
       </c>
       <c r="S85" t="n">
-        <v>226.3375757575757</v>
+        <v>104.3969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>2504</v>
       </c>
       <c r="B86" t="n">
-        <v>460.06</v>
+        <v>1232.94</v>
       </c>
       <c r="C86" t="n">
-        <v>2091.29</v>
+        <v>5000.709999999998</v>
       </c>
       <c r="D86" t="n">
-        <v>190.1172727272727</v>
+        <v>656.6588888888887</v>
       </c>
       <c r="E86" t="n">
-        <v>168.9931313131313</v>
+        <v>505.1222222222221</v>
       </c>
       <c r="F86" t="n">
-        <v>147.8689898989899</v>
+        <v>454.6099999999998</v>
       </c>
       <c r="G86" t="n">
-        <v>168.9931313131313</v>
+        <v>454.6099999999998</v>
       </c>
       <c r="H86" t="n">
-        <v>168.9931313131313</v>
+        <v>454.6099999999998</v>
       </c>
       <c r="I86" t="n">
-        <v>126.7448484848485</v>
+        <v>353.5855555555555</v>
       </c>
       <c r="J86" t="n">
-        <v>147.8689898989899</v>
+        <v>303.0733333333333</v>
       </c>
       <c r="K86" t="n">
-        <v>126.7448484848485</v>
+        <v>252.561111111111</v>
       </c>
       <c r="L86" t="n">
-        <v>126.7448484848485</v>
+        <v>252.561111111111</v>
       </c>
       <c r="M86" t="n">
-        <v>168.9931313131313</v>
+        <v>606.1466666666665</v>
       </c>
       <c r="N86" t="n">
-        <v>105.6207070707071</v>
+        <v>202.0488888888888</v>
       </c>
       <c r="O86" t="n">
-        <v>105.6207070707071</v>
+        <v>151.5366666666666</v>
       </c>
       <c r="P86" t="n">
-        <v>84.49656565656564</v>
+        <v>151.5366666666666</v>
       </c>
       <c r="Q86" t="n">
-        <v>63.37242424242423</v>
+        <v>101.0244444444444</v>
       </c>
       <c r="R86" t="n">
-        <v>63.37242424242423</v>
+        <v>50.51222222222221</v>
       </c>
       <c r="S86" t="n">
-        <v>126.7448484848485</v>
+        <v>50.51222222222221</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="n">
-        <v>4859.68</v>
+        <v>822.6</v>
       </c>
       <c r="C87" t="n">
-        <v>21934.56</v>
+        <v>3701.709999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2462.042448979591</v>
+        <v>336.5190909090908</v>
       </c>
       <c r="E87" t="n">
-        <v>2014.398367346938</v>
+        <v>261.7370707070707</v>
       </c>
       <c r="F87" t="n">
-        <v>2014.398367346938</v>
+        <v>261.7370707070707</v>
       </c>
       <c r="G87" t="n">
-        <v>2014.398367346938</v>
+        <v>299.1280808080807</v>
       </c>
       <c r="H87" t="n">
-        <v>1790.576326530612</v>
+        <v>299.1280808080807</v>
       </c>
       <c r="I87" t="n">
-        <v>1566.754285714286</v>
+        <v>261.7370707070707</v>
       </c>
       <c r="J87" t="n">
-        <v>1566.754285714286</v>
+        <v>224.3460606060606</v>
       </c>
       <c r="K87" t="n">
-        <v>1342.932244897959</v>
+        <v>224.3460606060606</v>
       </c>
       <c r="L87" t="n">
-        <v>1119.110204081632</v>
+        <v>224.3460606060606</v>
       </c>
       <c r="M87" t="n">
-        <v>2238.220408163265</v>
+        <v>299.1280808080807</v>
       </c>
       <c r="N87" t="n">
-        <v>895.2881632653059</v>
+        <v>224.3460606060606</v>
       </c>
       <c r="O87" t="n">
-        <v>895.2881632653059</v>
+        <v>149.5640404040404</v>
       </c>
       <c r="P87" t="n">
-        <v>671.4661224489794</v>
+        <v>149.5640404040404</v>
       </c>
       <c r="Q87" t="n">
-        <v>447.644081632653</v>
+        <v>149.5640404040404</v>
       </c>
       <c r="R87" t="n">
-        <v>447.644081632653</v>
+        <v>112.1730303030303</v>
       </c>
       <c r="S87" t="n">
-        <v>447.644081632653</v>
+        <v>224.3460606060606</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7651</v>
+        <v>303</v>
       </c>
       <c r="B88" t="n">
-        <v>2291.25</v>
+        <v>459.78</v>
       </c>
       <c r="C88" t="n">
-        <v>9189.799999999999</v>
+        <v>2069.03</v>
       </c>
       <c r="D88" t="n">
-        <v>1010.878</v>
+        <v>188.0936363636363</v>
       </c>
       <c r="E88" t="n">
-        <v>827.0819999999998</v>
+        <v>167.1943434343434</v>
       </c>
       <c r="F88" t="n">
-        <v>735.1839999999999</v>
+        <v>146.2950505050505</v>
       </c>
       <c r="G88" t="n">
-        <v>735.1839999999999</v>
+        <v>167.1943434343434</v>
       </c>
       <c r="H88" t="n">
-        <v>735.1839999999999</v>
+        <v>167.1943434343434</v>
       </c>
       <c r="I88" t="n">
-        <v>643.2859999999998</v>
+        <v>125.3957575757576</v>
       </c>
       <c r="J88" t="n">
-        <v>551.3879999999998</v>
+        <v>146.2950505050505</v>
       </c>
       <c r="K88" t="n">
-        <v>551.3879999999998</v>
+        <v>125.3957575757576</v>
       </c>
       <c r="L88" t="n">
-        <v>459.4899999999998</v>
+        <v>125.3957575757576</v>
       </c>
       <c r="M88" t="n">
-        <v>918.9799999999997</v>
+        <v>167.1943434343434</v>
       </c>
       <c r="N88" t="n">
-        <v>459.4899999999998</v>
+        <v>104.4964646464646</v>
       </c>
       <c r="O88" t="n">
-        <v>367.5919999999999</v>
+        <v>104.4964646464646</v>
       </c>
       <c r="P88" t="n">
-        <v>367.5919999999999</v>
+        <v>83.5971717171717</v>
       </c>
       <c r="Q88" t="n">
-        <v>367.5919999999999</v>
+        <v>62.69787878787878</v>
       </c>
       <c r="R88" t="n">
-        <v>183.796</v>
+        <v>62.69787878787878</v>
       </c>
       <c r="S88" t="n">
-        <v>275.6939999999999</v>
+        <v>125.3957575757576</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7652</v>
+        <v>301</v>
       </c>
       <c r="B89" t="n">
-        <v>1329.13</v>
+        <v>4858.07</v>
       </c>
       <c r="C89" t="n">
-        <v>5501.639999999999</v>
+        <v>21861.30999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>708.1318811881188</v>
+        <v>2453.820510204081</v>
       </c>
       <c r="E89" t="n">
-        <v>544.7168316831683</v>
+        <v>2007.671326530612</v>
       </c>
       <c r="F89" t="n">
-        <v>544.7168316831683</v>
+        <v>2007.671326530612</v>
       </c>
       <c r="G89" t="n">
-        <v>599.188514851485</v>
+        <v>2007.671326530612</v>
       </c>
       <c r="H89" t="n">
-        <v>490.2451485148514</v>
+        <v>1784.596734693877</v>
       </c>
       <c r="I89" t="n">
-        <v>435.7734653465346</v>
+        <v>1561.522142857143</v>
       </c>
       <c r="J89" t="n">
-        <v>272.3584158415841</v>
+        <v>1561.522142857143</v>
       </c>
       <c r="K89" t="n">
-        <v>272.3584158415841</v>
+        <v>1338.447551020408</v>
       </c>
       <c r="L89" t="n">
-        <v>272.3584158415841</v>
+        <v>1115.372959183673</v>
       </c>
       <c r="M89" t="n">
-        <v>653.6601980198018</v>
+        <v>2230.745918367346</v>
       </c>
       <c r="N89" t="n">
-        <v>217.8867326732673</v>
+        <v>892.2983673469386</v>
       </c>
       <c r="O89" t="n">
-        <v>163.4150495049504</v>
+        <v>892.2983673469386</v>
       </c>
       <c r="P89" t="n">
-        <v>108.9433663366337</v>
+        <v>669.2237755102038</v>
       </c>
       <c r="Q89" t="n">
-        <v>108.9433663366337</v>
+        <v>446.1491836734693</v>
       </c>
       <c r="R89" t="n">
-        <v>54.47168316831683</v>
+        <v>446.1491836734693</v>
       </c>
       <c r="S89" t="n">
-        <v>54.47168316831683</v>
+        <v>446.1491836734693</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>201</v>
+        <v>7651</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08</v>
+        <v>2291.25</v>
       </c>
       <c r="C90" t="n">
-        <v>0.34</v>
+        <v>9189.799999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0408</v>
+        <v>1010.878</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0408</v>
+        <v>827.0819999999998</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0374</v>
+        <v>735.1839999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.034</v>
+        <v>735.1839999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0272</v>
+        <v>735.1839999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>0.02380000000000001</v>
+        <v>643.2859999999998</v>
       </c>
       <c r="J90" t="n">
-        <v>0.017</v>
+        <v>551.3879999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>0.017</v>
+        <v>551.3879999999998</v>
       </c>
       <c r="L90" t="n">
-        <v>0.017</v>
+        <v>459.4899999999998</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0408</v>
+        <v>918.9799999999997</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0136</v>
+        <v>459.4899999999998</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0102</v>
+        <v>367.5919999999999</v>
       </c>
       <c r="P90" t="n">
-        <v>0.0068</v>
+        <v>367.5919999999999</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.0068</v>
+        <v>367.5919999999999</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0034</v>
+        <v>183.796</v>
       </c>
       <c r="S90" t="n">
-        <v>0.0034</v>
+        <v>275.6939999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6608</v>
+        <v>7652</v>
       </c>
       <c r="B91" t="n">
-        <v>1.36</v>
+        <v>1329.13</v>
       </c>
       <c r="C91" t="n">
-        <v>6.130000000000001</v>
+        <v>5501.639999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7355999999999999</v>
+        <v>708.1318811881188</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7355999999999999</v>
+        <v>544.7168316831683</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6743</v>
+        <v>544.7168316831683</v>
       </c>
       <c r="G91" t="n">
-        <v>0.613</v>
+        <v>599.188514851485</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4904</v>
+        <v>490.2451485148514</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4291</v>
+        <v>435.7734653465346</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3065</v>
+        <v>272.3584158415841</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3065</v>
+        <v>272.3584158415841</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3065</v>
+        <v>272.3584158415841</v>
       </c>
       <c r="M91" t="n">
-        <v>0.7355999999999999</v>
+        <v>653.6601980198018</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2452</v>
+        <v>217.8867326732673</v>
       </c>
       <c r="O91" t="n">
-        <v>0.1839</v>
+        <v>163.4150495049504</v>
       </c>
       <c r="P91" t="n">
-        <v>0.1226</v>
+        <v>108.9433663366337</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.1226</v>
+        <v>108.9433663366337</v>
       </c>
       <c r="R91" t="n">
-        <v>0.0613</v>
+        <v>54.47168316831683</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0613</v>
+        <v>54.47168316831683</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2025.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2025.xlsx
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1151.44999641891</v>
+        <v>1151.449996418909</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>3585.602196402347</v>
+        <v>3585.602196402348</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3170.239689626988</v>
+        <v>3170.239689626991</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>14613.08903873925</v>
+        <v>14613.08903873924</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>8287.759301245358</v>
+        <v>8287.759301245351</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>14112.74184024463</v>
+        <v>14112.74184024464</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>9104.686041597433</v>
+        <v>9104.686041597432</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>35003.65250121392</v>
+        <v>35003.65250121394</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>25876.76852095268</v>
+        <v>25876.76852095266</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>9885.020915381157</v>
+        <v>9885.020915381163</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1451.83944746431</v>
+        <v>1451.839447464311</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>7113.190258109426</v>
+        <v>7113.190258109428</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2244.180795983397</v>
+        <v>2244.180795983398</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>12823.05247958681</v>
+        <v>12823.0524795868</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>9907.900963974977</v>
+        <v>9907.900963974978</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3024.107919695308</v>
+        <v>3024.107919695306</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>7509.71584924435</v>
+        <v>7509.715849244338</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>6927.790978093692</v>
+        <v>6927.790978093689</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>33953.28146071259</v>
+        <v>33953.28146071261</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>9072.841744888967</v>
+        <v>9072.841744888972</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>11465.33216020146</v>
+        <v>11465.33216020145</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>24624.36764655067</v>
+        <v>24624.36764655068</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>5888.788401875064</v>
+        <v>5888.788401875067</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>4963.128938341389</v>
+        <v>4963.128938341388</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>3894.659362049964</v>
+        <v>3894.659362049963</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>615.1417689158059</v>
+        <v>615.1417689158056</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>3512.113637136438</v>
+        <v>3512.113637136441</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>3922.18978497749</v>
+        <v>3922.189784977491</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>6642.629150052434</v>
+        <v>6642.629150052432</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3290.466162827486</v>
+        <v>3290.466162827488</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>2632.839746097712</v>
+        <v>2632.839746097711</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4078.561532216292</v>
+        <v>4078.561532216293</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>4561.05535384786</v>
+        <v>4561.055353847859</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>5233.980265284601</v>
+        <v>5233.980265284602</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>7754.533509332985</v>
+        <v>7754.533509332981</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>5430.414301628933</v>
+        <v>5430.414301628931</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>6792.120605111518</v>
+        <v>6792.120605111517</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>43188.12114097897</v>
+        <v>43188.12114097898</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>37435.16717140992</v>
+        <v>37435.16717140991</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>41847.48898569804</v>
+        <v>41847.48898569801</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>68620.18341643385</v>
+        <v>68620.18341643381</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1575.659101522368</v>
+        <v>1575.659101522366</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>11996.0493775808</v>
+        <v>11996.04937758079</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>7095.061994148668</v>
+        <v>7095.061994148669</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>6918.933286481847</v>
+        <v>6918.933286481849</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>2600.897425674296</v>
+        <v>2600.897425674295</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>3441.072825818153</v>
+        <v>3441.072825818155</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>8758.484378652372</v>
+        <v>8758.484378652371</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>11314.61351353632</v>
+        <v>11314.61351353631</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>4080.692303129855</v>
+        <v>4080.692303129856</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>22139.70318053114</v>
+        <v>22139.70318053113</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>13638.29298071653</v>
+        <v>13638.29298071655</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>57452.81282812193</v>
+        <v>57452.81282812198</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>10926.74880783117</v>
+        <v>10926.74880783116</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>8788.573208526472</v>
+        <v>8788.573208526474</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>20405.18640701603</v>
+        <v>20405.18640701604</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>25088.08673886331</v>
+        <v>25088.08673886329</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>35108.95828651691</v>
+        <v>35108.95828651692</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>7455.91402990882</v>
+        <v>7455.914029908822</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>8957.922965428061</v>
+        <v>8957.922965428063</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>5951.573241664787</v>
+        <v>5951.573241664785</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3088.006328434872</v>
+        <v>3088.006328434873</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>9338.637999896655</v>
+        <v>9338.637999896653</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>3484.80396422284</v>
+        <v>3484.803964222841</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>4273.880541123181</v>
+        <v>4273.88054112318</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>9260.656767832284</v>
+        <v>9260.656767832281</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>7711.618706287514</v>
+        <v>7711.618706287513</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>70093.89985891023</v>
+        <v>70093.89985891021</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>11663.36482084784</v>
+        <v>11663.36482084783</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>6310.78910460972</v>
+        <v>6310.789104609717</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>38826.28812372536</v>
+        <v>38826.28812372535</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>40035.59989747014</v>
+        <v>40035.59989747013</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>27449.54586673247</v>
+        <v>27449.54586673246</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>37963.71855278253</v>
+        <v>37963.71855278257</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>27905.13789978063</v>
+        <v>27905.13789978062</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
